--- a/testy.xlsx
+++ b/testy.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="параигмы" sheetId="1" r:id="rId1"/>
+    <sheet name="гавлик" sheetId="2" r:id="rId2"/>
+    <sheet name="выравнивание" sheetId="3" r:id="rId3"/>
+    <sheet name="выравнивание не выбрал" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="558">
   <si>
     <t>лемма</t>
   </si>
@@ -162,6 +165,1542 @@
   </si>
   <si>
     <t>пока 90 %</t>
+  </si>
+  <si>
+    <t>лемма new</t>
+  </si>
+  <si>
+    <t>ларъ</t>
+  </si>
+  <si>
+    <t>инока</t>
+  </si>
+  <si>
+    <t>трупие</t>
+  </si>
+  <si>
+    <t>перебрати</t>
+  </si>
+  <si>
+    <t>турбернъ</t>
+  </si>
+  <si>
+    <t>брьвьно</t>
+  </si>
+  <si>
+    <t>бревно</t>
+  </si>
+  <si>
+    <t>сътужити</t>
+  </si>
+  <si>
+    <t>стужити</t>
+  </si>
+  <si>
+    <t>обити</t>
+  </si>
+  <si>
+    <t>отъкликнути</t>
+  </si>
+  <si>
+    <t>откликнути</t>
+  </si>
+  <si>
+    <t>доспѣти</t>
+  </si>
+  <si>
+    <t>егда</t>
+  </si>
+  <si>
+    <t>хлѣбъ</t>
+  </si>
+  <si>
+    <t>свеи</t>
+  </si>
+  <si>
+    <t>дрютьскъ</t>
+  </si>
+  <si>
+    <t>дрютескъ</t>
+  </si>
+  <si>
+    <t>вънезаапу</t>
+  </si>
+  <si>
+    <t>внезаапу</t>
+  </si>
+  <si>
+    <t>прѣбывати</t>
+  </si>
+  <si>
+    <t>привалити</t>
+  </si>
+  <si>
+    <t>льгъкыи</t>
+  </si>
+  <si>
+    <t>легкий</t>
+  </si>
+  <si>
+    <t>шлея</t>
+  </si>
+  <si>
+    <t>земля</t>
+  </si>
+  <si>
+    <t>младыи</t>
+  </si>
+  <si>
+    <t>младый</t>
+  </si>
+  <si>
+    <t>велѣти</t>
+  </si>
+  <si>
+    <t>полотьно</t>
+  </si>
+  <si>
+    <t>полотно</t>
+  </si>
+  <si>
+    <t>заровняти</t>
+  </si>
+  <si>
+    <t>дияконъ</t>
+  </si>
+  <si>
+    <t>такожде</t>
+  </si>
+  <si>
+    <t>пристояти</t>
+  </si>
+  <si>
+    <t>затѣсьнити</t>
+  </si>
+  <si>
+    <t>затѣснити</t>
+  </si>
+  <si>
+    <t>въдругъ</t>
+  </si>
+  <si>
+    <t>вдругъ</t>
+  </si>
+  <si>
+    <t>врѣжати</t>
+  </si>
+  <si>
+    <t>объдьржати</t>
+  </si>
+  <si>
+    <t>обдержати</t>
+  </si>
+  <si>
+    <t>побивати</t>
+  </si>
+  <si>
+    <t>даже</t>
+  </si>
+  <si>
+    <t>потакати</t>
+  </si>
+  <si>
+    <t>сиротъка</t>
+  </si>
+  <si>
+    <t>сиротка</t>
+  </si>
+  <si>
+    <t>изломати</t>
+  </si>
+  <si>
+    <t>неминучии</t>
+  </si>
+  <si>
+    <t>неминучий</t>
+  </si>
+  <si>
+    <t>ноябрь</t>
+  </si>
+  <si>
+    <t>поговорити</t>
+  </si>
+  <si>
+    <t>мъногыи</t>
+  </si>
+  <si>
+    <t>многий</t>
+  </si>
+  <si>
+    <t>зьдоровати</t>
+  </si>
+  <si>
+    <t>здоровати</t>
+  </si>
+  <si>
+    <t>адамль</t>
+  </si>
+  <si>
+    <t>переяти</t>
+  </si>
+  <si>
+    <t>насельникъ</t>
+  </si>
+  <si>
+    <t>промышленьныи</t>
+  </si>
+  <si>
+    <t>промышленный</t>
+  </si>
+  <si>
+    <t>надежа</t>
+  </si>
+  <si>
+    <t>каршевъ</t>
+  </si>
+  <si>
+    <t>повозьникъ</t>
+  </si>
+  <si>
+    <t>повозникъ</t>
+  </si>
+  <si>
+    <t>подворие</t>
+  </si>
+  <si>
+    <t>чадолюбивыи</t>
+  </si>
+  <si>
+    <t>чадолюбивый</t>
+  </si>
+  <si>
+    <t>полунощьница</t>
+  </si>
+  <si>
+    <t>полунощница</t>
+  </si>
+  <si>
+    <t>тьщати</t>
+  </si>
+  <si>
+    <t>тщати</t>
+  </si>
+  <si>
+    <t>чистота</t>
+  </si>
+  <si>
+    <t>асиръ</t>
+  </si>
+  <si>
+    <t>угърьское</t>
+  </si>
+  <si>
+    <t>угорское</t>
+  </si>
+  <si>
+    <t>жидъ</t>
+  </si>
+  <si>
+    <t>покърмити</t>
+  </si>
+  <si>
+    <t>покормити</t>
+  </si>
+  <si>
+    <t>завопити</t>
+  </si>
+  <si>
+    <t>извъну</t>
+  </si>
+  <si>
+    <t>извну</t>
+  </si>
+  <si>
+    <t>радити</t>
+  </si>
+  <si>
+    <t>низъпущати</t>
+  </si>
+  <si>
+    <t>низпущати</t>
+  </si>
+  <si>
+    <t>рукодѣльникъ</t>
+  </si>
+  <si>
+    <t>иевъ</t>
+  </si>
+  <si>
+    <t>дьбрь</t>
+  </si>
+  <si>
+    <t>дебрь</t>
+  </si>
+  <si>
+    <t>вълчьць</t>
+  </si>
+  <si>
+    <t>волчець</t>
+  </si>
+  <si>
+    <t>дворъ</t>
+  </si>
+  <si>
+    <t>дрѣмати</t>
+  </si>
+  <si>
+    <t>заутрьнии</t>
+  </si>
+  <si>
+    <t>заутрений</t>
+  </si>
+  <si>
+    <t>разълазька</t>
+  </si>
+  <si>
+    <t>разлазка</t>
+  </si>
+  <si>
+    <t>зубоѣжа</t>
+  </si>
+  <si>
+    <t>угнѣтати</t>
+  </si>
+  <si>
+    <t>управление</t>
+  </si>
+  <si>
+    <t>куртокъ</t>
+  </si>
+  <si>
+    <t>полунощие</t>
+  </si>
+  <si>
+    <t>заблудьныи</t>
+  </si>
+  <si>
+    <t>заблудный</t>
+  </si>
+  <si>
+    <t>завертѣти</t>
+  </si>
+  <si>
+    <t>сущь</t>
+  </si>
+  <si>
+    <t>нарядець</t>
+  </si>
+  <si>
+    <t>ожидати</t>
+  </si>
+  <si>
+    <t>моисеи</t>
+  </si>
+  <si>
+    <t>пыхнути</t>
+  </si>
+  <si>
+    <t>кыи</t>
+  </si>
+  <si>
+    <t>кий</t>
+  </si>
+  <si>
+    <t>чем</t>
+  </si>
+  <si>
+    <t>излияти</t>
+  </si>
+  <si>
+    <t>виноградъ</t>
+  </si>
+  <si>
+    <t>низлетѣти</t>
+  </si>
+  <si>
+    <t>обетъшание</t>
+  </si>
+  <si>
+    <t>обетшание</t>
+  </si>
+  <si>
+    <t>отъвыти</t>
+  </si>
+  <si>
+    <t>отвыти</t>
+  </si>
+  <si>
+    <t>прѣтрѣбовати</t>
+  </si>
+  <si>
+    <t>святопълчь</t>
+  </si>
+  <si>
+    <t>святополчь</t>
+  </si>
+  <si>
+    <t>опасение</t>
+  </si>
+  <si>
+    <t>невѣста</t>
+  </si>
+  <si>
+    <t>пронырьство</t>
+  </si>
+  <si>
+    <t>пронырство</t>
+  </si>
+  <si>
+    <t>камение</t>
+  </si>
+  <si>
+    <t>ярославичь</t>
+  </si>
+  <si>
+    <t>яможе</t>
+  </si>
+  <si>
+    <t>балтоуглии</t>
+  </si>
+  <si>
+    <t>балтоуглий</t>
+  </si>
+  <si>
+    <t>юрии</t>
+  </si>
+  <si>
+    <t>юрий</t>
+  </si>
+  <si>
+    <t>без</t>
+  </si>
+  <si>
+    <t>проливати</t>
+  </si>
+  <si>
+    <t>острити</t>
+  </si>
+  <si>
+    <t>погънати</t>
+  </si>
+  <si>
+    <t>погнати</t>
+  </si>
+  <si>
+    <t>мужьнии</t>
+  </si>
+  <si>
+    <t>мужний</t>
+  </si>
+  <si>
+    <t>дѣти</t>
+  </si>
+  <si>
+    <t>иворъ</t>
+  </si>
+  <si>
+    <t>иоворъ</t>
+  </si>
+  <si>
+    <t>съметьныи</t>
+  </si>
+  <si>
+    <t>сметный</t>
+  </si>
+  <si>
+    <t>смутный</t>
+  </si>
+  <si>
+    <t>двоюродныи</t>
+  </si>
+  <si>
+    <t>двоюродный</t>
+  </si>
+  <si>
+    <t>пьшеничьныи</t>
+  </si>
+  <si>
+    <t>пшеничный</t>
+  </si>
+  <si>
+    <t>въселяти</t>
+  </si>
+  <si>
+    <t>вселяти</t>
+  </si>
+  <si>
+    <t>господинъ</t>
+  </si>
+  <si>
+    <t>выслуживати</t>
+  </si>
+  <si>
+    <t>выслушивати</t>
+  </si>
+  <si>
+    <t>порѣзати</t>
+  </si>
+  <si>
+    <t>порѣвати</t>
+  </si>
+  <si>
+    <t>полудьние</t>
+  </si>
+  <si>
+    <t>полудние</t>
+  </si>
+  <si>
+    <t>получение</t>
+  </si>
+  <si>
+    <t>хыщьникъ</t>
+  </si>
+  <si>
+    <t>хищникъ</t>
+  </si>
+  <si>
+    <t>пиръ</t>
+  </si>
+  <si>
+    <t>оболоньскыи</t>
+  </si>
+  <si>
+    <t>оболонский</t>
+  </si>
+  <si>
+    <t>полонский</t>
+  </si>
+  <si>
+    <t>буря</t>
+  </si>
+  <si>
+    <t>мятежьно</t>
+  </si>
+  <si>
+    <t>мятежно</t>
+  </si>
+  <si>
+    <t>немятежно</t>
+  </si>
+  <si>
+    <t>а</t>
+  </si>
+  <si>
+    <t>бѣгъ</t>
+  </si>
+  <si>
+    <t>тужити</t>
+  </si>
+  <si>
+    <t>осетръ</t>
+  </si>
+  <si>
+    <t>сеиръ</t>
+  </si>
+  <si>
+    <t>цѣловати</t>
+  </si>
+  <si>
+    <t>дългота</t>
+  </si>
+  <si>
+    <t>долгота</t>
+  </si>
+  <si>
+    <t>брячина</t>
+  </si>
+  <si>
+    <t>причина</t>
+  </si>
+  <si>
+    <t>ивановъ</t>
+  </si>
+  <si>
+    <t>вановъ</t>
+  </si>
+  <si>
+    <t>сливание</t>
+  </si>
+  <si>
+    <t>вливание</t>
+  </si>
+  <si>
+    <t>тамо</t>
+  </si>
+  <si>
+    <t>обиходъ</t>
+  </si>
+  <si>
+    <t>обходъ</t>
+  </si>
+  <si>
+    <t>богословьць</t>
+  </si>
+  <si>
+    <t>богословець</t>
+  </si>
+  <si>
+    <t>богословецъ</t>
+  </si>
+  <si>
+    <t>братия</t>
+  </si>
+  <si>
+    <t>благодарение</t>
+  </si>
+  <si>
+    <t>немощьствовати</t>
+  </si>
+  <si>
+    <t>немощствовати</t>
+  </si>
+  <si>
+    <t>низложити</t>
+  </si>
+  <si>
+    <t>умирити</t>
+  </si>
+  <si>
+    <t>съвязывати</t>
+  </si>
+  <si>
+    <t>связывати</t>
+  </si>
+  <si>
+    <t>по</t>
+  </si>
+  <si>
+    <t>въ</t>
+  </si>
+  <si>
+    <t>съкопити</t>
+  </si>
+  <si>
+    <t>скопити</t>
+  </si>
+  <si>
+    <t>корета</t>
+  </si>
+  <si>
+    <t>крата</t>
+  </si>
+  <si>
+    <t>ограда</t>
+  </si>
+  <si>
+    <t>свободити</t>
+  </si>
+  <si>
+    <t>стълпъ</t>
+  </si>
+  <si>
+    <t>столпъ</t>
+  </si>
+  <si>
+    <t>польныи</t>
+  </si>
+  <si>
+    <t>польный</t>
+  </si>
+  <si>
+    <t>писание</t>
+  </si>
+  <si>
+    <t>укланяти</t>
+  </si>
+  <si>
+    <t>гражданинъ</t>
+  </si>
+  <si>
+    <t>толико</t>
+  </si>
+  <si>
+    <t>фригиискии</t>
+  </si>
+  <si>
+    <t>фригийский</t>
+  </si>
+  <si>
+    <t>прѣподобьныи</t>
+  </si>
+  <si>
+    <t>прѣподобный</t>
+  </si>
+  <si>
+    <t>предподобный</t>
+  </si>
+  <si>
+    <t>въступити</t>
+  </si>
+  <si>
+    <t>вступити</t>
+  </si>
+  <si>
+    <t>излишнии</t>
+  </si>
+  <si>
+    <t>излишний</t>
+  </si>
+  <si>
+    <t>захотѣти</t>
+  </si>
+  <si>
+    <t>дѣлати</t>
+  </si>
+  <si>
+    <t>въдати</t>
+  </si>
+  <si>
+    <t>вдати</t>
+  </si>
+  <si>
+    <t>мельница</t>
+  </si>
+  <si>
+    <t>избьрати</t>
+  </si>
+  <si>
+    <t>избрати</t>
+  </si>
+  <si>
+    <t>ни</t>
+  </si>
+  <si>
+    <t>чьрвь</t>
+  </si>
+  <si>
+    <t>червь</t>
+  </si>
+  <si>
+    <t>бесчьстие</t>
+  </si>
+  <si>
+    <t>бесчестие</t>
+  </si>
+  <si>
+    <t>безчестие</t>
+  </si>
+  <si>
+    <t>въдрузити</t>
+  </si>
+  <si>
+    <t>вдрузити</t>
+  </si>
+  <si>
+    <t>водрузити</t>
+  </si>
+  <si>
+    <t>повозъ</t>
+  </si>
+  <si>
+    <t>поводъ</t>
+  </si>
+  <si>
+    <t>увидѣти</t>
+  </si>
+  <si>
+    <t>милостыня</t>
+  </si>
+  <si>
+    <t>тяжьба</t>
+  </si>
+  <si>
+    <t>тяжба</t>
+  </si>
+  <si>
+    <t>замокнути</t>
+  </si>
+  <si>
+    <t>намокнути</t>
+  </si>
+  <si>
+    <t>переписати</t>
+  </si>
+  <si>
+    <t>прописати</t>
+  </si>
+  <si>
+    <t>съборище</t>
+  </si>
+  <si>
+    <t>сборище</t>
+  </si>
+  <si>
+    <t>старьчии</t>
+  </si>
+  <si>
+    <t>старчий</t>
+  </si>
+  <si>
+    <t>въбѣгнути</t>
+  </si>
+  <si>
+    <t>вбѣгнути</t>
+  </si>
+  <si>
+    <t>распутие</t>
+  </si>
+  <si>
+    <t>пакостити</t>
+  </si>
+  <si>
+    <t>благовѣщеньскыи</t>
+  </si>
+  <si>
+    <t>благовѣщенский</t>
+  </si>
+  <si>
+    <t>наимъ</t>
+  </si>
+  <si>
+    <t>наемъ</t>
+  </si>
+  <si>
+    <t>фригия</t>
+  </si>
+  <si>
+    <t>пияныи</t>
+  </si>
+  <si>
+    <t>пияный</t>
+  </si>
+  <si>
+    <t>отъпадати</t>
+  </si>
+  <si>
+    <t>отпадати</t>
+  </si>
+  <si>
+    <t>отьчьскы</t>
+  </si>
+  <si>
+    <t>отечески</t>
+  </si>
+  <si>
+    <t>служьбьникъ</t>
+  </si>
+  <si>
+    <t>служебникъ</t>
+  </si>
+  <si>
+    <t>лѣпотьныи</t>
+  </si>
+  <si>
+    <t>лѣпотный</t>
+  </si>
+  <si>
+    <t>знати</t>
+  </si>
+  <si>
+    <t>вътечи</t>
+  </si>
+  <si>
+    <t>втечи</t>
+  </si>
+  <si>
+    <t>втещи</t>
+  </si>
+  <si>
+    <t>въмѣстьныи</t>
+  </si>
+  <si>
+    <t>вмѣстный</t>
+  </si>
+  <si>
+    <t>рѣчьныи</t>
+  </si>
+  <si>
+    <t>рѣчный</t>
+  </si>
+  <si>
+    <t>наложьница</t>
+  </si>
+  <si>
+    <t>наложница</t>
+  </si>
+  <si>
+    <t>пищаль</t>
+  </si>
+  <si>
+    <t>колико</t>
+  </si>
+  <si>
+    <t>соединити</t>
+  </si>
+  <si>
+    <t>солома</t>
+  </si>
+  <si>
+    <t>слота</t>
+  </si>
+  <si>
+    <t>середьнии</t>
+  </si>
+  <si>
+    <t>середний</t>
+  </si>
+  <si>
+    <t>средний</t>
+  </si>
+  <si>
+    <t>чьстити</t>
+  </si>
+  <si>
+    <t>честити</t>
+  </si>
+  <si>
+    <t>чистити</t>
+  </si>
+  <si>
+    <t>сфирка</t>
+  </si>
+  <si>
+    <t>фириа</t>
+  </si>
+  <si>
+    <t>неистовьство</t>
+  </si>
+  <si>
+    <t>неистовство</t>
+  </si>
+  <si>
+    <t>брѣщи</t>
+  </si>
+  <si>
+    <t>обрещи</t>
+  </si>
+  <si>
+    <t>велии</t>
+  </si>
+  <si>
+    <t>велий</t>
+  </si>
+  <si>
+    <t>принести</t>
+  </si>
+  <si>
+    <t>мирьно</t>
+  </si>
+  <si>
+    <t>мирно</t>
+  </si>
+  <si>
+    <t>идолопоклонникъ</t>
+  </si>
+  <si>
+    <t>моление</t>
+  </si>
+  <si>
+    <t>келия</t>
+  </si>
+  <si>
+    <t>колия</t>
+  </si>
+  <si>
+    <t>старая</t>
+  </si>
+  <si>
+    <t>новая</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>CANNOT chose from обѣдение</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to </t>
+  </si>
+  <si>
+    <t>обсѣдение, обѣшение</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> distance == 1</t>
+  </si>
+  <si>
+    <t>CANNOT chose from обинути</t>
+  </si>
+  <si>
+    <t>зинути, ринути, минути</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> distance == 2</t>
+  </si>
+  <si>
+    <t>CANNOT chose from алеевъ</t>
+  </si>
+  <si>
+    <t>алфеевъ, фалеевъ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from робий</t>
+  </si>
+  <si>
+    <t>рабий, рыбий</t>
+  </si>
+  <si>
+    <t>CANNOT chose from смѣрение</t>
+  </si>
+  <si>
+    <t>умѣрение, смѣжение, смирение, смѣшение, мѣрение</t>
+  </si>
+  <si>
+    <t>CANNOT chose from задушный</t>
+  </si>
+  <si>
+    <t>радужный, содушный</t>
+  </si>
+  <si>
+    <t>CANNOT chose from крѣпцѣ</t>
+  </si>
+  <si>
+    <t>крѣпко, рѣдцѣ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from прикласти</t>
+  </si>
+  <si>
+    <t>припасти, прислати, приплести, пригласити, прикасати</t>
+  </si>
+  <si>
+    <t>CANNOT chose from зажити</t>
+  </si>
+  <si>
+    <t>забити, заити</t>
+  </si>
+  <si>
+    <t>CANNOT chose from иевъ</t>
+  </si>
+  <si>
+    <t>левъ, киевъ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from цѣсарство</t>
+  </si>
+  <si>
+    <t>лѣкарство, царство</t>
+  </si>
+  <si>
+    <t>CANNOT chose from кручина</t>
+  </si>
+  <si>
+    <t>пучина, кончина, крупица, паучина, купина, причина, дружина</t>
+  </si>
+  <si>
+    <t>CANNOT chose from наинъ</t>
+  </si>
+  <si>
+    <t>аинъ, гаинъ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from прѣкрестити</t>
+  </si>
+  <si>
+    <t>прекротити, прекратити</t>
+  </si>
+  <si>
+    <t>CANNOT chose from трѣба</t>
+  </si>
+  <si>
+    <t>труба, отреба</t>
+  </si>
+  <si>
+    <t>CANNOT chose from вборзѣ</t>
+  </si>
+  <si>
+    <t>борзо, вдолзѣ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from расмѣяти</t>
+  </si>
+  <si>
+    <t>насѣяти, расчести, разсѣяти, развѣяти, растаяти, распяти, распѣняти, посмѣяти, осмѣяти</t>
+  </si>
+  <si>
+    <t>CANNOT chose from дѣверъ</t>
+  </si>
+  <si>
+    <t>сѣверъ, деворъ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from пригрѣсти</t>
+  </si>
+  <si>
+    <t>приобрѣсти, пригорѣти</t>
+  </si>
+  <si>
+    <t>CANNOT chose from вставити</t>
+  </si>
+  <si>
+    <t>ставити, уставити, оставити</t>
+  </si>
+  <si>
+    <t>CANNOT chose from дума</t>
+  </si>
+  <si>
+    <t>душа, дуга, кума</t>
+  </si>
+  <si>
+    <t>CANNOT chose from ияковъ</t>
+  </si>
+  <si>
+    <t>ковъ, икосъ, псковъ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from шаманити</t>
+  </si>
+  <si>
+    <t>манити, замѣнити</t>
+  </si>
+  <si>
+    <t>CANNOT chose from недрѣманный</t>
+  </si>
+  <si>
+    <t>недѣланный, непремѣнный, недремленный</t>
+  </si>
+  <si>
+    <t>CANNOT chose from патрийский</t>
+  </si>
+  <si>
+    <t>латрийский, парийский</t>
+  </si>
+  <si>
+    <t>CANNOT chose from крѣсити</t>
+  </si>
+  <si>
+    <t>красити, крѣпити</t>
+  </si>
+  <si>
+    <t>CANNOT chose from стефанъ</t>
+  </si>
+  <si>
+    <t>станъ, софанъ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from ворожити</t>
+  </si>
+  <si>
+    <t>вооружити, вражити</t>
+  </si>
+  <si>
+    <t>CANNOT chose from подача</t>
+  </si>
+  <si>
+    <t>подоба, подсада, продажа, роздача</t>
+  </si>
+  <si>
+    <t>CANNOT chose from кордно</t>
+  </si>
+  <si>
+    <t>корыто, колѣно</t>
+  </si>
+  <si>
+    <t>CANNOT chose from уставный</t>
+  </si>
+  <si>
+    <t>составный, неуставный</t>
+  </si>
+  <si>
+    <t>CANNOT chose from иргенъ</t>
+  </si>
+  <si>
+    <t>зигенъ, органъ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from прѣбывати</t>
+  </si>
+  <si>
+    <t>прибывати, предбывати</t>
+  </si>
+  <si>
+    <t>CANNOT chose from запрѣщение</t>
+  </si>
+  <si>
+    <t>замѣщение, заплетение, прещение</t>
+  </si>
+  <si>
+    <t>CANNOT chose from холопъ</t>
+  </si>
+  <si>
+    <t>холмъ, хелонъ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from всканути</t>
+  </si>
+  <si>
+    <t>вскапати, уканути, вскиснути, вскачати</t>
+  </si>
+  <si>
+    <t>CANNOT chose from тщати</t>
+  </si>
+  <si>
+    <t>ткати, мщати</t>
+  </si>
+  <si>
+    <t>CANNOT chose from острѣщи</t>
+  </si>
+  <si>
+    <t>острищи, стрещи</t>
+  </si>
+  <si>
+    <t>CANNOT chose from поглядѣти</t>
+  </si>
+  <si>
+    <t>поглядати, соглядѣти</t>
+  </si>
+  <si>
+    <t>CANNOT chose from костелъ</t>
+  </si>
+  <si>
+    <t>котелъ, костеръ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from подтяти</t>
+  </si>
+  <si>
+    <t>подняти, подаяти, подпяти, подъяти</t>
+  </si>
+  <si>
+    <t>CANNOT chose from пастила</t>
+  </si>
+  <si>
+    <t>частица, паутина, паства, паствина</t>
+  </si>
+  <si>
+    <t>CANNOT chose from биричь</t>
+  </si>
+  <si>
+    <t>кирпичь, бичь</t>
+  </si>
+  <si>
+    <t>CANNOT chose from чернчий</t>
+  </si>
+  <si>
+    <t>жерчий, черный</t>
+  </si>
+  <si>
+    <t>CANNOT chose from растаскати</t>
+  </si>
+  <si>
+    <t>растесати, растаевати, растаявати</t>
+  </si>
+  <si>
+    <t>CANNOT chose from дояти</t>
+  </si>
+  <si>
+    <t>даяти, доити</t>
+  </si>
+  <si>
+    <t>CANNOT chose from завопити</t>
+  </si>
+  <si>
+    <t>завѣсити, заточити, наводити, затворити, свопити, закопати, заложити, завалити, звонити, заходити</t>
+  </si>
+  <si>
+    <t>CANNOT chose from оружити</t>
+  </si>
+  <si>
+    <t>дружити, окружити</t>
+  </si>
+  <si>
+    <t>CANNOT chose from плаха</t>
+  </si>
+  <si>
+    <t>лѣха, праща, влага, пара, плиада, глава, блоха, пава, пасха, слава, палата, леха</t>
+  </si>
+  <si>
+    <t>CANNOT chose from волхва</t>
+  </si>
+  <si>
+    <t>оолива, молва, волшба, волна</t>
+  </si>
+  <si>
+    <t>CANNOT chose from рось</t>
+  </si>
+  <si>
+    <t>русь, роса, рысь</t>
+  </si>
+  <si>
+    <t>CANNOT chose from пригожати</t>
+  </si>
+  <si>
+    <t>прилежати, прижати, пригнати</t>
+  </si>
+  <si>
+    <t>CANNOT chose from вставати</t>
+  </si>
+  <si>
+    <t>ставати, оставати</t>
+  </si>
+  <si>
+    <t>CANNOT chose from гуляти</t>
+  </si>
+  <si>
+    <t>буяти, густи, кляти, хулити, губити, валяти, уяти, чуяти, являти</t>
+  </si>
+  <si>
+    <t>CANNOT chose from торчинъ</t>
+  </si>
+  <si>
+    <t>тиринъ, форвинъ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from полоняный</t>
+  </si>
+  <si>
+    <t>плотяный, волняный</t>
+  </si>
+  <si>
+    <t>CANNOT chose from обѣзждати</t>
+  </si>
+  <si>
+    <t>побѣждати, обуздати, обѣдати, оцѣждати, обхождати, убѣждати</t>
+  </si>
+  <si>
+    <t>CANNOT chose from побирати</t>
+  </si>
+  <si>
+    <t>побрати, поборати</t>
+  </si>
+  <si>
+    <t>CANNOT chose from росольникъ</t>
+  </si>
+  <si>
+    <t>состольникъ, раскольникъ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from портный</t>
+  </si>
+  <si>
+    <t>потный, постный</t>
+  </si>
+  <si>
+    <t>CANNOT chose from прѣслушати</t>
+  </si>
+  <si>
+    <t>пресушити, послушати, преступати</t>
+  </si>
+  <si>
+    <t>CANNOT chose from самуилъ</t>
+  </si>
+  <si>
+    <t>иемуилъ, самусъ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from каитакъ</t>
+  </si>
+  <si>
+    <t>критикъ, аттакъ, ваинакъ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from арабанский</t>
+  </si>
+  <si>
+    <t>арианский, адаманский, араратский</t>
+  </si>
+  <si>
+    <t>CANNOT chose from наклоняти</t>
+  </si>
+  <si>
+    <t>склоняти, поклоняти, уклоняти</t>
+  </si>
+  <si>
+    <t>CANNOT chose from затоптати</t>
+  </si>
+  <si>
+    <t>заточати, истоптати, закопати, топтати, потоптати</t>
+  </si>
+  <si>
+    <t>CANNOT chose from дурний</t>
+  </si>
+  <si>
+    <t>горний, давний, бурный, дружний, мужний</t>
+  </si>
+  <si>
+    <t>CANNOT chose from прѣбыти</t>
+  </si>
+  <si>
+    <t>предбыти, прибыти</t>
+  </si>
+  <si>
+    <t>CANNOT chose from ония</t>
+  </si>
+  <si>
+    <t>кония, онгия</t>
+  </si>
+  <si>
+    <t>CANNOT chose from шпага</t>
+  </si>
+  <si>
+    <t>влага, пара, пава</t>
+  </si>
+  <si>
+    <t>CANNOT chose from колский</t>
+  </si>
+  <si>
+    <t>коликий, конский</t>
+  </si>
+  <si>
+    <t>CANNOT chose from кричание</t>
+  </si>
+  <si>
+    <t>кончание, кичение</t>
+  </si>
+  <si>
+    <t>CANNOT chose from два</t>
+  </si>
+  <si>
+    <t>овча, дно, диво</t>
+  </si>
+  <si>
+    <t>CANNOT chose from свѣчати</t>
+  </si>
+  <si>
+    <t>свѣтати, свѣщати, свѣдати</t>
+  </si>
+  <si>
+    <t>CANNOT chose from сума</t>
+  </si>
+  <si>
+    <t>суша, сула, кума</t>
+  </si>
+  <si>
+    <t>CANNOT chose from прѣди</t>
+  </si>
+  <si>
+    <t>впреди, спреди, среди, преки</t>
+  </si>
+  <si>
+    <t>CANNOT chose from трѣзвити</t>
+  </si>
+  <si>
+    <t>трезвитися, развити</t>
+  </si>
+  <si>
+    <t>CANNOT chose from шлѣмъ</t>
+  </si>
+  <si>
+    <t>асемъ, левъ, салемъ, тлѣнъ, аломъ, аламъ, плѣнъ, ленъ, шумъ, слѣдъ, членъ, климъ, хлѣвъ, хлѣбъ, лѣсъ, едемъ, ледъ, уламъ, алефъ, еламъ, блѣдъ, наемъ, плевъ, елимъ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from пухъ</t>
+  </si>
+  <si>
+    <t>пупъ, духъ, пудъ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from добити</t>
+  </si>
+  <si>
+    <t>побити, доити, обити</t>
+  </si>
+  <si>
+    <t>CANNOT chose from курилъ</t>
+  </si>
+  <si>
+    <t>кумиръ, крикъ, муринъ, кармилъ, кринъ, уилъ, суринъ, фуримъ, критъ, каролъ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from расѣяти</t>
+  </si>
+  <si>
+    <t>насѣяти, разсѣяти, распяти</t>
+  </si>
+  <si>
+    <t>CANNOT chose from гостиный</t>
+  </si>
+  <si>
+    <t>достижный, костный, ослиный, постный, постижный</t>
+  </si>
+  <si>
+    <t>CANNOT chose from кинути</t>
+  </si>
+  <si>
+    <t>CANNOT chose from истопити</t>
+  </si>
+  <si>
+    <t>источити, истомити, истощити</t>
+  </si>
+  <si>
+    <t>CANNOT chose from павелъ</t>
+  </si>
+  <si>
+    <t>плевелъ, авель, хаволъ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from божница</t>
+  </si>
+  <si>
+    <t>ложница, ножница, бойница</t>
+  </si>
+  <si>
+    <t>CANNOT chose from внука</t>
+  </si>
+  <si>
+    <t>мука, скука, рука, наука</t>
+  </si>
+  <si>
+    <t>CANNOT chose from лѣтникъ</t>
+  </si>
+  <si>
+    <t>вѣстникъ, цвѣтникъ, ситникъ, хлѣбникъ, местникъ, плѣнникъ, бѣдникъ, златникъ, ратникъ, щитникъ, сотникъ, путникъ, мѣдникъ, мытникъ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from прѣзирати</t>
+  </si>
+  <si>
+    <t>призирати, прозирати</t>
+  </si>
+  <si>
+    <t>CANNOT chose from подмести</t>
+  </si>
+  <si>
+    <t>поднести, подвести, помести</t>
+  </si>
+  <si>
+    <t>CANNOT chose from дробина</t>
+  </si>
+  <si>
+    <t>долина, родина, дружина</t>
+  </si>
+  <si>
+    <t>CANNOT chose from вжадати</t>
+  </si>
+  <si>
+    <t>жадати, впадати</t>
+  </si>
+  <si>
+    <t>CANNOT chose from данилъ</t>
+  </si>
+  <si>
+    <t>анимъ, аилъ, саниръ, данникъ, танинъ, каналъ, данафъ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from встащити</t>
+  </si>
+  <si>
+    <t>истощити, вступити, встати, ставити, всадити, уставити, оставити</t>
+  </si>
+  <si>
+    <t>CANNOT chose from вѣчко</t>
+  </si>
+  <si>
+    <t>весло, вѣно, ведро</t>
+  </si>
+  <si>
+    <t>CANNOT chose from лотъ</t>
+  </si>
+  <si>
+    <t>плотъ, потъ, ловъ, лобъ, сотъ, фотъ</t>
+  </si>
+  <si>
+    <t>CANNOT chose from кормля</t>
+  </si>
+  <si>
+    <t>корма, кормчая</t>
+  </si>
+  <si>
+    <t>есть ли нужный</t>
   </si>
 </sst>
 </file>
@@ -187,12 +1726,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -207,9 +1752,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -490,15 +2036,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -511,8 +2057,17 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -528,8 +2083,14 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -545,8 +2106,14 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -563,7 +2130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -580,7 +2147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -600,7 +2167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -617,7 +2184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -634,7 +2201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -651,7 +2218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -671,7 +2238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -688,7 +2255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -705,7 +2272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -722,7 +2289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -739,7 +2306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -756,7 +2323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -873,4 +2440,4893 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" t="s">
+        <v>166</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" t="s">
+        <v>167</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>168</v>
+      </c>
+      <c r="B90" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>172</v>
+      </c>
+      <c r="B93" t="s">
+        <v>173</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>174</v>
+      </c>
+      <c r="B94" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>175</v>
+      </c>
+      <c r="B95" t="s">
+        <v>175</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" t="s">
+        <v>176</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>177</v>
+      </c>
+      <c r="B97" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>179</v>
+      </c>
+      <c r="B98" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>181</v>
+      </c>
+      <c r="B99" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>182</v>
+      </c>
+      <c r="B100" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B32" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" t="s">
+        <v>241</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>243</v>
+      </c>
+      <c r="B36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" t="s">
+        <v>243</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>246</v>
+      </c>
+      <c r="B38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" t="s">
+        <v>246</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B39" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" t="s">
+        <v>247</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>248</v>
+      </c>
+      <c r="B40" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>250</v>
+      </c>
+      <c r="B41" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" t="s">
+        <v>251</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>252</v>
+      </c>
+      <c r="B42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" t="s">
+        <v>253</v>
+      </c>
+      <c r="C43" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>254</v>
+      </c>
+      <c r="B44" t="s">
+        <v>255</v>
+      </c>
+      <c r="C44" t="s">
+        <v>255</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" t="s">
+        <v>257</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" t="s">
+        <v>258</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B47" t="s">
+        <v>259</v>
+      </c>
+      <c r="C47" t="s">
+        <v>259</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" t="s">
+        <v>260</v>
+      </c>
+      <c r="C48" t="s">
+        <v>260</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" t="s">
+        <v>261</v>
+      </c>
+      <c r="C49" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>262</v>
+      </c>
+      <c r="B50" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" t="s">
+        <v>263</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>264</v>
+      </c>
+      <c r="B51" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>267</v>
+      </c>
+      <c r="B52" t="s">
+        <v>268</v>
+      </c>
+      <c r="C52" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" t="s">
+        <v>270</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" t="s">
+        <v>271</v>
+      </c>
+      <c r="C54" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>272</v>
+      </c>
+      <c r="B55" t="s">
+        <v>272</v>
+      </c>
+      <c r="C55" t="s">
+        <v>272</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C56" t="s">
+        <v>274</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" t="s">
+        <v>275</v>
+      </c>
+      <c r="C57" t="s">
+        <v>275</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>276</v>
+      </c>
+      <c r="B58" t="s">
+        <v>277</v>
+      </c>
+      <c r="C58" t="s">
+        <v>277</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59" t="s">
+        <v>278</v>
+      </c>
+      <c r="C59" t="s">
+        <v>278</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>279</v>
+      </c>
+      <c r="B60" t="s">
+        <v>280</v>
+      </c>
+      <c r="C60" t="s">
+        <v>280</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>281</v>
+      </c>
+      <c r="B61" t="s">
+        <v>282</v>
+      </c>
+      <c r="C61" t="s">
+        <v>283</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>284</v>
+      </c>
+      <c r="B62" t="s">
+        <v>285</v>
+      </c>
+      <c r="C62" t="s">
+        <v>286</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>287</v>
+      </c>
+      <c r="B63" t="s">
+        <v>287</v>
+      </c>
+      <c r="C63" t="s">
+        <v>288</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>289</v>
+      </c>
+      <c r="B64" t="s">
+        <v>289</v>
+      </c>
+      <c r="C64" t="s">
+        <v>289</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>290</v>
+      </c>
+      <c r="B65" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65" t="s">
+        <v>290</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>291</v>
+      </c>
+      <c r="B66" t="s">
+        <v>292</v>
+      </c>
+      <c r="C66" t="s">
+        <v>292</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>293</v>
+      </c>
+      <c r="B67" t="s">
+        <v>293</v>
+      </c>
+      <c r="C67" t="s">
+        <v>294</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>295</v>
+      </c>
+      <c r="B68" t="s">
+        <v>295</v>
+      </c>
+      <c r="C68" t="s">
+        <v>296</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>297</v>
+      </c>
+      <c r="B69" t="s">
+        <v>298</v>
+      </c>
+      <c r="C69" t="s">
+        <v>298</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>299</v>
+      </c>
+      <c r="B70" t="s">
+        <v>300</v>
+      </c>
+      <c r="C70" t="s">
+        <v>300</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>301</v>
+      </c>
+      <c r="B71" t="s">
+        <v>302</v>
+      </c>
+      <c r="C71" t="s">
+        <v>302</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>303</v>
+      </c>
+      <c r="B72" t="s">
+        <v>303</v>
+      </c>
+      <c r="C72" t="s">
+        <v>303</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>304</v>
+      </c>
+      <c r="B73" t="s">
+        <v>304</v>
+      </c>
+      <c r="C73" t="s">
+        <v>304</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>305</v>
+      </c>
+      <c r="B74" t="s">
+        <v>306</v>
+      </c>
+      <c r="C74" t="s">
+        <v>306</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>307</v>
+      </c>
+      <c r="B75" t="s">
+        <v>307</v>
+      </c>
+      <c r="C75" t="s">
+        <v>308</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>309</v>
+      </c>
+      <c r="B76" t="s">
+        <v>309</v>
+      </c>
+      <c r="C76" t="s">
+        <v>309</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>310</v>
+      </c>
+      <c r="B77" t="s">
+        <v>311</v>
+      </c>
+      <c r="C77" t="s">
+        <v>311</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>312</v>
+      </c>
+      <c r="B78" t="s">
+        <v>313</v>
+      </c>
+      <c r="C78" t="s">
+        <v>313</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>314</v>
+      </c>
+      <c r="B79" t="s">
+        <v>315</v>
+      </c>
+      <c r="C79" t="s">
+        <v>315</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>316</v>
+      </c>
+      <c r="B80" t="s">
+        <v>317</v>
+      </c>
+      <c r="C80" t="s">
+        <v>317</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>318</v>
+      </c>
+      <c r="B81" t="s">
+        <v>319</v>
+      </c>
+      <c r="C81" t="s">
+        <v>319</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>320</v>
+      </c>
+      <c r="B82" t="s">
+        <v>320</v>
+      </c>
+      <c r="C82" t="s">
+        <v>320</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>321</v>
+      </c>
+      <c r="B83" t="s">
+        <v>322</v>
+      </c>
+      <c r="C83" t="s">
+        <v>323</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>324</v>
+      </c>
+      <c r="B84" t="s">
+        <v>325</v>
+      </c>
+      <c r="C84" t="s">
+        <v>325</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>326</v>
+      </c>
+      <c r="B85" t="s">
+        <v>327</v>
+      </c>
+      <c r="C85" t="s">
+        <v>327</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>328</v>
+      </c>
+      <c r="B86" t="s">
+        <v>329</v>
+      </c>
+      <c r="C86" t="s">
+        <v>329</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>330</v>
+      </c>
+      <c r="B87" t="s">
+        <v>330</v>
+      </c>
+      <c r="C87" t="s">
+        <v>330</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>331</v>
+      </c>
+      <c r="B88" t="s">
+        <v>331</v>
+      </c>
+      <c r="C88" t="s">
+        <v>331</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>332</v>
+      </c>
+      <c r="B89" t="s">
+        <v>332</v>
+      </c>
+      <c r="C89" t="s">
+        <v>332</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>333</v>
+      </c>
+      <c r="B90" t="s">
+        <v>333</v>
+      </c>
+      <c r="C90" t="s">
+        <v>334</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>335</v>
+      </c>
+      <c r="B91" t="s">
+        <v>336</v>
+      </c>
+      <c r="C91" t="s">
+        <v>337</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>338</v>
+      </c>
+      <c r="B92" t="s">
+        <v>339</v>
+      </c>
+      <c r="C92" t="s">
+        <v>340</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>341</v>
+      </c>
+      <c r="B93" t="s">
+        <v>341</v>
+      </c>
+      <c r="C93" t="s">
+        <v>342</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>343</v>
+      </c>
+      <c r="B94" t="s">
+        <v>344</v>
+      </c>
+      <c r="C94" t="s">
+        <v>344</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>345</v>
+      </c>
+      <c r="B95" t="s">
+        <v>345</v>
+      </c>
+      <c r="C95" t="s">
+        <v>346</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>347</v>
+      </c>
+      <c r="B96" t="s">
+        <v>348</v>
+      </c>
+      <c r="C96" t="s">
+        <v>348</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>349</v>
+      </c>
+      <c r="B97" t="s">
+        <v>349</v>
+      </c>
+      <c r="C97" t="s">
+        <v>349</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>350</v>
+      </c>
+      <c r="B98" t="s">
+        <v>351</v>
+      </c>
+      <c r="C98" t="s">
+        <v>351</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>352</v>
+      </c>
+      <c r="B99" t="s">
+        <v>352</v>
+      </c>
+      <c r="C99" t="s">
+        <v>352</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>353</v>
+      </c>
+      <c r="B100" t="s">
+        <v>353</v>
+      </c>
+      <c r="C100" t="s">
+        <v>353</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>354</v>
+      </c>
+      <c r="B101" t="s">
+        <v>354</v>
+      </c>
+      <c r="C101" t="s">
+        <v>355</v>
+      </c>
+      <c r="D101" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <f>SUMIF(D2:D101, "да", E2:E101)</f>
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="82.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" t="s">
+        <v>365</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D9" t="s">
+        <v>365</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D10" t="s">
+        <v>362</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D11" t="s">
+        <v>362</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D12" t="s">
+        <v>365</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B13" t="s">
+        <v>360</v>
+      </c>
+      <c r="C13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D13" t="s">
+        <v>365</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" t="s">
+        <v>387</v>
+      </c>
+      <c r="D14" t="s">
+        <v>362</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C15" t="s">
+        <v>389</v>
+      </c>
+      <c r="D15" t="s">
+        <v>365</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D16" t="s">
+        <v>362</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>392</v>
+      </c>
+      <c r="B17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" t="s">
+        <v>393</v>
+      </c>
+      <c r="D17" t="s">
+        <v>365</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>394</v>
+      </c>
+      <c r="B18" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" t="s">
+        <v>395</v>
+      </c>
+      <c r="D18" t="s">
+        <v>365</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>396</v>
+      </c>
+      <c r="B19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D19" t="s">
+        <v>362</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>398</v>
+      </c>
+      <c r="B20" t="s">
+        <v>360</v>
+      </c>
+      <c r="C20" t="s">
+        <v>399</v>
+      </c>
+      <c r="D20" t="s">
+        <v>365</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>400</v>
+      </c>
+      <c r="B21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D21" t="s">
+        <v>362</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>402</v>
+      </c>
+      <c r="B22" t="s">
+        <v>360</v>
+      </c>
+      <c r="C22" t="s">
+        <v>403</v>
+      </c>
+      <c r="D22" t="s">
+        <v>362</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>404</v>
+      </c>
+      <c r="B23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23" t="s">
+        <v>405</v>
+      </c>
+      <c r="D23" t="s">
+        <v>365</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>406</v>
+      </c>
+      <c r="B24" t="s">
+        <v>360</v>
+      </c>
+      <c r="C24" t="s">
+        <v>407</v>
+      </c>
+      <c r="D24" t="s">
+        <v>365</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>408</v>
+      </c>
+      <c r="B25" t="s">
+        <v>360</v>
+      </c>
+      <c r="C25" t="s">
+        <v>409</v>
+      </c>
+      <c r="D25" t="s">
+        <v>365</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>410</v>
+      </c>
+      <c r="B26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26" t="s">
+        <v>411</v>
+      </c>
+      <c r="D26" t="s">
+        <v>362</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>412</v>
+      </c>
+      <c r="B27" t="s">
+        <v>360</v>
+      </c>
+      <c r="C27" t="s">
+        <v>413</v>
+      </c>
+      <c r="D27" t="s">
+        <v>362</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>414</v>
+      </c>
+      <c r="B28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C28" t="s">
+        <v>415</v>
+      </c>
+      <c r="D28" t="s">
+        <v>365</v>
+      </c>
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>416</v>
+      </c>
+      <c r="B29" t="s">
+        <v>360</v>
+      </c>
+      <c r="C29" t="s">
+        <v>417</v>
+      </c>
+      <c r="D29" t="s">
+        <v>365</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>418</v>
+      </c>
+      <c r="B30" t="s">
+        <v>360</v>
+      </c>
+      <c r="C30" t="s">
+        <v>419</v>
+      </c>
+      <c r="D30" t="s">
+        <v>365</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>420</v>
+      </c>
+      <c r="B31" t="s">
+        <v>360</v>
+      </c>
+      <c r="C31" t="s">
+        <v>421</v>
+      </c>
+      <c r="D31" t="s">
+        <v>365</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>422</v>
+      </c>
+      <c r="B32" t="s">
+        <v>360</v>
+      </c>
+      <c r="C32" t="s">
+        <v>423</v>
+      </c>
+      <c r="D32" t="s">
+        <v>365</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>424</v>
+      </c>
+      <c r="B33" t="s">
+        <v>360</v>
+      </c>
+      <c r="C33" t="s">
+        <v>425</v>
+      </c>
+      <c r="D33" t="s">
+        <v>365</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>426</v>
+      </c>
+      <c r="B34" t="s">
+        <v>360</v>
+      </c>
+      <c r="C34" t="s">
+        <v>427</v>
+      </c>
+      <c r="D34" t="s">
+        <v>362</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>428</v>
+      </c>
+      <c r="B35" t="s">
+        <v>360</v>
+      </c>
+      <c r="C35" t="s">
+        <v>429</v>
+      </c>
+      <c r="D35" t="s">
+        <v>365</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>430</v>
+      </c>
+      <c r="B36" t="s">
+        <v>360</v>
+      </c>
+      <c r="C36" t="s">
+        <v>431</v>
+      </c>
+      <c r="D36" t="s">
+        <v>365</v>
+      </c>
+      <c r="F36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>432</v>
+      </c>
+      <c r="B37" t="s">
+        <v>360</v>
+      </c>
+      <c r="C37" t="s">
+        <v>433</v>
+      </c>
+      <c r="D37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>434</v>
+      </c>
+      <c r="B38" t="s">
+        <v>360</v>
+      </c>
+      <c r="C38" t="s">
+        <v>435</v>
+      </c>
+      <c r="D38" t="s">
+        <v>362</v>
+      </c>
+      <c r="F38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>436</v>
+      </c>
+      <c r="B39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C39" t="s">
+        <v>437</v>
+      </c>
+      <c r="D39" t="s">
+        <v>362</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>438</v>
+      </c>
+      <c r="B40" t="s">
+        <v>360</v>
+      </c>
+      <c r="C40" t="s">
+        <v>439</v>
+      </c>
+      <c r="D40" t="s">
+        <v>362</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>440</v>
+      </c>
+      <c r="B41" t="s">
+        <v>360</v>
+      </c>
+      <c r="C41" t="s">
+        <v>441</v>
+      </c>
+      <c r="D41" t="s">
+        <v>362</v>
+      </c>
+      <c r="F41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>442</v>
+      </c>
+      <c r="B42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C42" t="s">
+        <v>443</v>
+      </c>
+      <c r="D42" t="s">
+        <v>362</v>
+      </c>
+      <c r="F42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>359</v>
+      </c>
+      <c r="B43" t="s">
+        <v>360</v>
+      </c>
+      <c r="C43" t="s">
+        <v>361</v>
+      </c>
+      <c r="D43" t="s">
+        <v>362</v>
+      </c>
+      <c r="F43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>444</v>
+      </c>
+      <c r="B44" t="s">
+        <v>360</v>
+      </c>
+      <c r="C44" t="s">
+        <v>445</v>
+      </c>
+      <c r="D44" t="s">
+        <v>365</v>
+      </c>
+      <c r="F44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>446</v>
+      </c>
+      <c r="B45" t="s">
+        <v>360</v>
+      </c>
+      <c r="C45" t="s">
+        <v>447</v>
+      </c>
+      <c r="D45" t="s">
+        <v>365</v>
+      </c>
+      <c r="F45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>448</v>
+      </c>
+      <c r="B46" t="s">
+        <v>360</v>
+      </c>
+      <c r="C46" t="s">
+        <v>449</v>
+      </c>
+      <c r="D46" t="s">
+        <v>365</v>
+      </c>
+      <c r="F46" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>450</v>
+      </c>
+      <c r="B47" t="s">
+        <v>360</v>
+      </c>
+      <c r="C47" t="s">
+        <v>451</v>
+      </c>
+      <c r="D47" t="s">
+        <v>365</v>
+      </c>
+      <c r="F47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>452</v>
+      </c>
+      <c r="B48" t="s">
+        <v>360</v>
+      </c>
+      <c r="C48" t="s">
+        <v>453</v>
+      </c>
+      <c r="D48" t="s">
+        <v>362</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>454</v>
+      </c>
+      <c r="B49" t="s">
+        <v>360</v>
+      </c>
+      <c r="C49" t="s">
+        <v>455</v>
+      </c>
+      <c r="D49" t="s">
+        <v>365</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>456</v>
+      </c>
+      <c r="B50" t="s">
+        <v>360</v>
+      </c>
+      <c r="C50" t="s">
+        <v>457</v>
+      </c>
+      <c r="D50" t="s">
+        <v>362</v>
+      </c>
+      <c r="F50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>458</v>
+      </c>
+      <c r="B51" t="s">
+        <v>360</v>
+      </c>
+      <c r="C51" t="s">
+        <v>459</v>
+      </c>
+      <c r="D51" t="s">
+        <v>365</v>
+      </c>
+      <c r="F51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>460</v>
+      </c>
+      <c r="B52" t="s">
+        <v>360</v>
+      </c>
+      <c r="C52" t="s">
+        <v>461</v>
+      </c>
+      <c r="D52" t="s">
+        <v>365</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>462</v>
+      </c>
+      <c r="B53" t="s">
+        <v>360</v>
+      </c>
+      <c r="C53" t="s">
+        <v>463</v>
+      </c>
+      <c r="D53" t="s">
+        <v>362</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>464</v>
+      </c>
+      <c r="B54" t="s">
+        <v>360</v>
+      </c>
+      <c r="C54" t="s">
+        <v>465</v>
+      </c>
+      <c r="D54" t="s">
+        <v>365</v>
+      </c>
+      <c r="F54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>466</v>
+      </c>
+      <c r="B55" t="s">
+        <v>360</v>
+      </c>
+      <c r="C55" t="s">
+        <v>467</v>
+      </c>
+      <c r="D55" t="s">
+        <v>362</v>
+      </c>
+      <c r="F55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>468</v>
+      </c>
+      <c r="B56" t="s">
+        <v>360</v>
+      </c>
+      <c r="C56" t="s">
+        <v>469</v>
+      </c>
+      <c r="D56" t="s">
+        <v>365</v>
+      </c>
+      <c r="F56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>470</v>
+      </c>
+      <c r="B57" t="s">
+        <v>360</v>
+      </c>
+      <c r="C57" t="s">
+        <v>471</v>
+      </c>
+      <c r="D57" t="s">
+        <v>365</v>
+      </c>
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>472</v>
+      </c>
+      <c r="B58" t="s">
+        <v>360</v>
+      </c>
+      <c r="C58" t="s">
+        <v>473</v>
+      </c>
+      <c r="D58" t="s">
+        <v>365</v>
+      </c>
+      <c r="F58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>474</v>
+      </c>
+      <c r="B59" t="s">
+        <v>360</v>
+      </c>
+      <c r="C59" t="s">
+        <v>475</v>
+      </c>
+      <c r="D59" t="s">
+        <v>365</v>
+      </c>
+      <c r="F59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>476</v>
+      </c>
+      <c r="B60" t="s">
+        <v>360</v>
+      </c>
+      <c r="C60" t="s">
+        <v>477</v>
+      </c>
+      <c r="D60" t="s">
+        <v>362</v>
+      </c>
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>478</v>
+      </c>
+      <c r="B61" t="s">
+        <v>360</v>
+      </c>
+      <c r="C61" t="s">
+        <v>479</v>
+      </c>
+      <c r="D61" t="s">
+        <v>365</v>
+      </c>
+      <c r="F61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>480</v>
+      </c>
+      <c r="B62" t="s">
+        <v>360</v>
+      </c>
+      <c r="C62" t="s">
+        <v>481</v>
+      </c>
+      <c r="D62" t="s">
+        <v>362</v>
+      </c>
+      <c r="F62" t="s">
+        <v>38</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>482</v>
+      </c>
+      <c r="B63" t="s">
+        <v>360</v>
+      </c>
+      <c r="C63" t="s">
+        <v>483</v>
+      </c>
+      <c r="D63" t="s">
+        <v>365</v>
+      </c>
+      <c r="F63" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>484</v>
+      </c>
+      <c r="B64" t="s">
+        <v>360</v>
+      </c>
+      <c r="C64" t="s">
+        <v>485</v>
+      </c>
+      <c r="D64" t="s">
+        <v>365</v>
+      </c>
+      <c r="F64" t="s">
+        <v>38</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>486</v>
+      </c>
+      <c r="B65" t="s">
+        <v>360</v>
+      </c>
+      <c r="C65" t="s">
+        <v>487</v>
+      </c>
+      <c r="D65" t="s">
+        <v>365</v>
+      </c>
+      <c r="F65" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>488</v>
+      </c>
+      <c r="B66" t="s">
+        <v>360</v>
+      </c>
+      <c r="C66" t="s">
+        <v>489</v>
+      </c>
+      <c r="D66" t="s">
+        <v>365</v>
+      </c>
+      <c r="F66" t="s">
+        <v>38</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>490</v>
+      </c>
+      <c r="B67" t="s">
+        <v>360</v>
+      </c>
+      <c r="C67" t="s">
+        <v>491</v>
+      </c>
+      <c r="D67" t="s">
+        <v>365</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>492</v>
+      </c>
+      <c r="B68" t="s">
+        <v>360</v>
+      </c>
+      <c r="C68" t="s">
+        <v>493</v>
+      </c>
+      <c r="D68" t="s">
+        <v>365</v>
+      </c>
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>494</v>
+      </c>
+      <c r="B69" t="s">
+        <v>360</v>
+      </c>
+      <c r="C69" t="s">
+        <v>495</v>
+      </c>
+      <c r="D69" t="s">
+        <v>365</v>
+      </c>
+      <c r="F69" t="s">
+        <v>38</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>496</v>
+      </c>
+      <c r="B70" t="s">
+        <v>360</v>
+      </c>
+      <c r="C70" t="s">
+        <v>497</v>
+      </c>
+      <c r="D70" t="s">
+        <v>362</v>
+      </c>
+      <c r="F70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>498</v>
+      </c>
+      <c r="B71" t="s">
+        <v>360</v>
+      </c>
+      <c r="C71" t="s">
+        <v>499</v>
+      </c>
+      <c r="D71" t="s">
+        <v>362</v>
+      </c>
+      <c r="F71" t="s">
+        <v>38</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>500</v>
+      </c>
+      <c r="B72" t="s">
+        <v>360</v>
+      </c>
+      <c r="C72" t="s">
+        <v>501</v>
+      </c>
+      <c r="D72" t="s">
+        <v>365</v>
+      </c>
+      <c r="F72" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>502</v>
+      </c>
+      <c r="B73" t="s">
+        <v>360</v>
+      </c>
+      <c r="C73" t="s">
+        <v>503</v>
+      </c>
+      <c r="D73" t="s">
+        <v>362</v>
+      </c>
+      <c r="F73" t="s">
+        <v>38</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>504</v>
+      </c>
+      <c r="B74" t="s">
+        <v>360</v>
+      </c>
+      <c r="C74" t="s">
+        <v>505</v>
+      </c>
+      <c r="D74" t="s">
+        <v>365</v>
+      </c>
+      <c r="F74" t="s">
+        <v>38</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>506</v>
+      </c>
+      <c r="B75" t="s">
+        <v>360</v>
+      </c>
+      <c r="C75" t="s">
+        <v>507</v>
+      </c>
+      <c r="D75" t="s">
+        <v>365</v>
+      </c>
+      <c r="F75" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>508</v>
+      </c>
+      <c r="B76" t="s">
+        <v>360</v>
+      </c>
+      <c r="C76" t="s">
+        <v>509</v>
+      </c>
+      <c r="D76" t="s">
+        <v>362</v>
+      </c>
+      <c r="F76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>510</v>
+      </c>
+      <c r="B77" t="s">
+        <v>360</v>
+      </c>
+      <c r="C77" t="s">
+        <v>511</v>
+      </c>
+      <c r="D77" t="s">
+        <v>362</v>
+      </c>
+      <c r="F77" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>512</v>
+      </c>
+      <c r="B78" t="s">
+        <v>360</v>
+      </c>
+      <c r="C78" t="s">
+        <v>513</v>
+      </c>
+      <c r="D78" t="s">
+        <v>362</v>
+      </c>
+      <c r="F78" t="s">
+        <v>38</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>514</v>
+      </c>
+      <c r="B79" t="s">
+        <v>360</v>
+      </c>
+      <c r="C79" t="s">
+        <v>515</v>
+      </c>
+      <c r="D79" t="s">
+        <v>365</v>
+      </c>
+      <c r="F79" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>516</v>
+      </c>
+      <c r="B80" t="s">
+        <v>360</v>
+      </c>
+      <c r="C80" t="s">
+        <v>517</v>
+      </c>
+      <c r="D80" t="s">
+        <v>365</v>
+      </c>
+      <c r="F80" t="s">
+        <v>38</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>518</v>
+      </c>
+      <c r="B81" t="s">
+        <v>360</v>
+      </c>
+      <c r="C81" t="s">
+        <v>519</v>
+      </c>
+      <c r="D81" t="s">
+        <v>362</v>
+      </c>
+      <c r="F81" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>520</v>
+      </c>
+      <c r="B82" t="s">
+        <v>360</v>
+      </c>
+      <c r="C82" t="s">
+        <v>521</v>
+      </c>
+      <c r="D82" t="s">
+        <v>362</v>
+      </c>
+      <c r="F82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>522</v>
+      </c>
+      <c r="B83" t="s">
+        <v>360</v>
+      </c>
+      <c r="C83" t="s">
+        <v>523</v>
+      </c>
+      <c r="D83" t="s">
+        <v>365</v>
+      </c>
+      <c r="F83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>524</v>
+      </c>
+      <c r="B84" t="s">
+        <v>360</v>
+      </c>
+      <c r="C84" t="s">
+        <v>525</v>
+      </c>
+      <c r="D84" t="s">
+        <v>362</v>
+      </c>
+      <c r="F84" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>526</v>
+      </c>
+      <c r="B85" t="s">
+        <v>360</v>
+      </c>
+      <c r="C85" t="s">
+        <v>527</v>
+      </c>
+      <c r="D85" t="s">
+        <v>365</v>
+      </c>
+      <c r="F85" t="s">
+        <v>38</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>528</v>
+      </c>
+      <c r="B86" t="s">
+        <v>360</v>
+      </c>
+      <c r="C86" t="s">
+        <v>364</v>
+      </c>
+      <c r="D86" t="s">
+        <v>362</v>
+      </c>
+      <c r="F86" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>529</v>
+      </c>
+      <c r="B87" t="s">
+        <v>360</v>
+      </c>
+      <c r="C87" t="s">
+        <v>530</v>
+      </c>
+      <c r="D87" t="s">
+        <v>362</v>
+      </c>
+      <c r="F87" t="s">
+        <v>38</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>531</v>
+      </c>
+      <c r="B88" t="s">
+        <v>360</v>
+      </c>
+      <c r="C88" t="s">
+        <v>532</v>
+      </c>
+      <c r="D88" t="s">
+        <v>365</v>
+      </c>
+      <c r="F88" t="s">
+        <v>38</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>533</v>
+      </c>
+      <c r="B89" t="s">
+        <v>360</v>
+      </c>
+      <c r="C89" t="s">
+        <v>534</v>
+      </c>
+      <c r="D89" t="s">
+        <v>362</v>
+      </c>
+      <c r="F89" t="s">
+        <v>38</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>535</v>
+      </c>
+      <c r="B90" t="s">
+        <v>360</v>
+      </c>
+      <c r="C90" t="s">
+        <v>536</v>
+      </c>
+      <c r="D90" t="s">
+        <v>365</v>
+      </c>
+      <c r="F90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>452</v>
+      </c>
+      <c r="B91" t="s">
+        <v>360</v>
+      </c>
+      <c r="C91" t="s">
+        <v>453</v>
+      </c>
+      <c r="D91" t="s">
+        <v>362</v>
+      </c>
+      <c r="F91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>537</v>
+      </c>
+      <c r="B92" t="s">
+        <v>360</v>
+      </c>
+      <c r="C92" t="s">
+        <v>538</v>
+      </c>
+      <c r="D92" t="s">
+        <v>365</v>
+      </c>
+      <c r="F92" t="s">
+        <v>38</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>539</v>
+      </c>
+      <c r="B93" t="s">
+        <v>360</v>
+      </c>
+      <c r="C93" t="s">
+        <v>540</v>
+      </c>
+      <c r="D93" t="s">
+        <v>362</v>
+      </c>
+      <c r="F93" t="s">
+        <v>38</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>541</v>
+      </c>
+      <c r="B94" t="s">
+        <v>360</v>
+      </c>
+      <c r="C94" t="s">
+        <v>542</v>
+      </c>
+      <c r="D94" t="s">
+        <v>362</v>
+      </c>
+      <c r="F94" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>543</v>
+      </c>
+      <c r="B95" t="s">
+        <v>360</v>
+      </c>
+      <c r="C95" t="s">
+        <v>544</v>
+      </c>
+      <c r="D95" t="s">
+        <v>365</v>
+      </c>
+      <c r="F95" t="s">
+        <v>38</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>545</v>
+      </c>
+      <c r="B96" t="s">
+        <v>360</v>
+      </c>
+      <c r="C96" t="s">
+        <v>546</v>
+      </c>
+      <c r="D96" t="s">
+        <v>362</v>
+      </c>
+      <c r="F96" t="s">
+        <v>38</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>547</v>
+      </c>
+      <c r="B97" t="s">
+        <v>360</v>
+      </c>
+      <c r="C97" t="s">
+        <v>548</v>
+      </c>
+      <c r="D97" t="s">
+        <v>365</v>
+      </c>
+      <c r="F97" t="s">
+        <v>38</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>549</v>
+      </c>
+      <c r="B98" t="s">
+        <v>360</v>
+      </c>
+      <c r="C98" t="s">
+        <v>550</v>
+      </c>
+      <c r="D98" t="s">
+        <v>365</v>
+      </c>
+      <c r="F98" t="s">
+        <v>38</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>551</v>
+      </c>
+      <c r="B99" t="s">
+        <v>360</v>
+      </c>
+      <c r="C99" t="s">
+        <v>552</v>
+      </c>
+      <c r="D99" t="s">
+        <v>365</v>
+      </c>
+      <c r="F99" t="s">
+        <v>38</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>553</v>
+      </c>
+      <c r="B100" t="s">
+        <v>360</v>
+      </c>
+      <c r="C100" t="s">
+        <v>554</v>
+      </c>
+      <c r="D100" t="s">
+        <v>362</v>
+      </c>
+      <c r="F100" t="s">
+        <v>38</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>555</v>
+      </c>
+      <c r="B101" t="s">
+        <v>360</v>
+      </c>
+      <c r="C101" t="s">
+        <v>556</v>
+      </c>
+      <c r="D101" t="s">
+        <v>365</v>
+      </c>
+      <c r="F101" t="s">
+        <v>38</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <f>SUMIF(F2:F101, "да", G2:G101)</f>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testy.xlsx
+++ b/testy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="параигмы" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="703">
   <si>
     <t>лемма</t>
   </si>
@@ -167,15 +167,6 @@
     <t>пока 90 %</t>
   </si>
   <si>
-    <t>лемма new</t>
-  </si>
-  <si>
-    <t>ларъ</t>
-  </si>
-  <si>
-    <t>инока</t>
-  </si>
-  <si>
     <t>трупие</t>
   </si>
   <si>
@@ -1701,6 +1692,450 @@
   </si>
   <si>
     <t>есть ли нужный</t>
+  </si>
+  <si>
+    <t>торот</t>
+  </si>
+  <si>
+    <t>нкря</t>
+  </si>
+  <si>
+    <t>образъ</t>
+  </si>
+  <si>
+    <t>0.521</t>
+  </si>
+  <si>
+    <t>брашно</t>
+  </si>
+  <si>
+    <t>щитъ</t>
+  </si>
+  <si>
+    <t>стадо</t>
+  </si>
+  <si>
+    <t>0.684</t>
+  </si>
+  <si>
+    <t>воевода</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>милостыни</t>
+  </si>
+  <si>
+    <t>0.617</t>
+  </si>
+  <si>
+    <t>чьсть</t>
+  </si>
+  <si>
+    <t>сѹди</t>
+  </si>
+  <si>
+    <t>N3i</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>языкъ</t>
+  </si>
+  <si>
+    <t>N1k</t>
+  </si>
+  <si>
+    <t>N2k</t>
+  </si>
+  <si>
+    <t>0.668</t>
+  </si>
+  <si>
+    <t>0.555</t>
+  </si>
+  <si>
+    <t>помочь</t>
+  </si>
+  <si>
+    <t>древо</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>печера</t>
+  </si>
+  <si>
+    <t>овенъ</t>
+  </si>
+  <si>
+    <t>0.713</t>
+  </si>
+  <si>
+    <t>N1j*</t>
+  </si>
+  <si>
+    <t>0.657</t>
+  </si>
+  <si>
+    <t>сватъ</t>
+  </si>
+  <si>
+    <t>старѣишина</t>
+  </si>
+  <si>
+    <t>алгоритм точно работает правильно, но тут мб ошибка в нашем понимании парадигмы</t>
+  </si>
+  <si>
+    <t>это N2t*</t>
+  </si>
+  <si>
+    <t>а еще это N5es</t>
+  </si>
+  <si>
+    <t>вариативность - см корабельный</t>
+  </si>
+  <si>
+    <t>мѹты</t>
+  </si>
+  <si>
+    <t>N5_STAR_ov</t>
+  </si>
+  <si>
+    <t>0.00333333333333</t>
+  </si>
+  <si>
+    <t>фекла</t>
+  </si>
+  <si>
+    <t>N3t_STAR</t>
+  </si>
+  <si>
+    <t>0.0333333333333</t>
+  </si>
+  <si>
+    <t>0.0666666666667</t>
+  </si>
+  <si>
+    <t>0.668459898399</t>
+  </si>
+  <si>
+    <t>рысь</t>
+  </si>
+  <si>
+    <t>шестьникъ</t>
+  </si>
+  <si>
+    <t>0.0222222222222</t>
+  </si>
+  <si>
+    <t>неправьда</t>
+  </si>
+  <si>
+    <t>трѧсаниє</t>
+  </si>
+  <si>
+    <t>невъздьржаниє</t>
+  </si>
+  <si>
+    <t>0.00666666666667</t>
+  </si>
+  <si>
+    <t>хърватъ</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>розгонъ</t>
+  </si>
+  <si>
+    <t>обычаи</t>
+  </si>
+  <si>
+    <t>N1a</t>
+  </si>
+  <si>
+    <t>0.318308830019</t>
+  </si>
+  <si>
+    <t>дорогы</t>
+  </si>
+  <si>
+    <t>ловитва</t>
+  </si>
+  <si>
+    <t>дѹбьнъка</t>
+  </si>
+  <si>
+    <t>N3k</t>
+  </si>
+  <si>
+    <t>бъдѣниє</t>
+  </si>
+  <si>
+    <t>0.215294645882</t>
+  </si>
+  <si>
+    <t>порѹка</t>
+  </si>
+  <si>
+    <t>загонъ</t>
+  </si>
+  <si>
+    <t>перестрѣлъ</t>
+  </si>
+  <si>
+    <t>стьгно</t>
+  </si>
+  <si>
+    <t>N2t_STAR</t>
+  </si>
+  <si>
+    <t>бестѹдьникъ</t>
+  </si>
+  <si>
+    <t>N1g</t>
+  </si>
+  <si>
+    <t>0.133333333333</t>
+  </si>
+  <si>
+    <t>N6t</t>
+  </si>
+  <si>
+    <t>N1sj</t>
+  </si>
+  <si>
+    <t>N5es</t>
+  </si>
+  <si>
+    <t>0.266666666667</t>
+  </si>
+  <si>
+    <t>0.0133333333333</t>
+  </si>
+  <si>
+    <t>натина</t>
+  </si>
+  <si>
+    <t>рогъ</t>
+  </si>
+  <si>
+    <t>мадиямлянинъ</t>
+  </si>
+  <si>
+    <t>N1in</t>
+  </si>
+  <si>
+    <t>сифъ</t>
+  </si>
+  <si>
+    <t>демиянъ</t>
+  </si>
+  <si>
+    <t>пльсковитин</t>
+  </si>
+  <si>
+    <t>чьрнь</t>
+  </si>
+  <si>
+    <t>мучька</t>
+  </si>
+  <si>
+    <t>N3k_STAR</t>
+  </si>
+  <si>
+    <t>рыбка</t>
+  </si>
+  <si>
+    <t>0.0444444444444</t>
+  </si>
+  <si>
+    <t>съмнѣние</t>
+  </si>
+  <si>
+    <t>дръзость</t>
+  </si>
+  <si>
+    <t>сырорѣзание</t>
+  </si>
+  <si>
+    <t>намѣстьникъ</t>
+  </si>
+  <si>
+    <t>прѣтичь</t>
+  </si>
+  <si>
+    <t>послухъ</t>
+  </si>
+  <si>
+    <t>евангелистъ</t>
+  </si>
+  <si>
+    <t>льтьць</t>
+  </si>
+  <si>
+    <t>холопъ</t>
+  </si>
+  <si>
+    <t>0.533333333333</t>
+  </si>
+  <si>
+    <t>N3s</t>
+  </si>
+  <si>
+    <t>N43_STAR</t>
+  </si>
+  <si>
+    <t>N5er</t>
+  </si>
+  <si>
+    <t>больше 0.5</t>
+  </si>
+  <si>
+    <t>любые</t>
+  </si>
+  <si>
+    <t>лучшие</t>
+  </si>
+  <si>
+    <t>вина</t>
+  </si>
+  <si>
+    <t>0.466666666667</t>
+  </si>
+  <si>
+    <t>башмакъ</t>
+  </si>
+  <si>
+    <t>ширванша</t>
+  </si>
+  <si>
+    <t>угълъ</t>
+  </si>
+  <si>
+    <t>узьникъ</t>
+  </si>
+  <si>
+    <t>мьчьта</t>
+  </si>
+  <si>
+    <t>капуста</t>
+  </si>
+  <si>
+    <t>проповѣдьникъ</t>
+  </si>
+  <si>
+    <t>сьрна</t>
+  </si>
+  <si>
+    <t>скудость</t>
+  </si>
+  <si>
+    <t>кърмля</t>
+  </si>
+  <si>
+    <t>платежь</t>
+  </si>
+  <si>
+    <t>зъло</t>
+  </si>
+  <si>
+    <t>0.333333333333</t>
+  </si>
+  <si>
+    <t>далматия</t>
+  </si>
+  <si>
+    <t>кръволитие</t>
+  </si>
+  <si>
+    <t>адамъ</t>
+  </si>
+  <si>
+    <t>въздаание</t>
+  </si>
+  <si>
+    <t>мужикъ</t>
+  </si>
+  <si>
+    <t>0.111111111111</t>
+  </si>
+  <si>
+    <t>егри</t>
+  </si>
+  <si>
+    <t>сынъ</t>
+  </si>
+  <si>
+    <t>0.933333333333</t>
+  </si>
+  <si>
+    <t>пиво</t>
+  </si>
+  <si>
+    <t>ометь</t>
+  </si>
+  <si>
+    <t>братьщина</t>
+  </si>
+  <si>
+    <t>поставъ</t>
+  </si>
+  <si>
+    <t>рода</t>
+  </si>
+  <si>
+    <t>съвада</t>
+  </si>
+  <si>
+    <t>твиреметь</t>
+  </si>
+  <si>
+    <t>статъкъ</t>
+  </si>
+  <si>
+    <t>градъвъзѧтиє</t>
+  </si>
+  <si>
+    <t>стража</t>
+  </si>
+  <si>
+    <t>бѹєсть</t>
+  </si>
+  <si>
+    <t>аронъ</t>
+  </si>
+  <si>
+    <t>полѧне</t>
+  </si>
+  <si>
+    <t>хоролъ</t>
+  </si>
+  <si>
+    <t>слѹжьбьникъ</t>
+  </si>
+  <si>
+    <t>разбоиникъ</t>
+  </si>
+  <si>
+    <t>0.411555297136</t>
+  </si>
+  <si>
+    <t>поморѧне</t>
+  </si>
+  <si>
+    <t>рьвьность</t>
+  </si>
+  <si>
+    <t>замориє</t>
+  </si>
+  <si>
+    <t>ближика</t>
   </si>
 </sst>
 </file>
@@ -2036,89 +2471,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>555</v>
+      </c>
+      <c r="K1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K3" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -2129,33 +2541,63 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>557</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>558</v>
+      </c>
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>559</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -2163,277 +2605,1763 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="K6" t="s">
+        <v>560</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>561</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>562</v>
+      </c>
+      <c r="N7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="K8" t="s">
+        <v>563</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>564</v>
+      </c>
+      <c r="N8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>565</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>566</v>
+      </c>
+      <c r="N9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>567</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>568</v>
+      </c>
+      <c r="L11" t="s">
+        <v>569</v>
+      </c>
+      <c r="M11" t="s">
+        <v>570</v>
+      </c>
+      <c r="N11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="K12" t="s">
+        <v>571</v>
+      </c>
+      <c r="L12" t="s">
+        <v>572</v>
+      </c>
+      <c r="M12" t="s">
+        <v>575</v>
+      </c>
+      <c r="N12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>571</v>
+      </c>
+      <c r="L13" t="s">
+        <v>573</v>
+      </c>
+      <c r="M13" t="s">
+        <v>574</v>
+      </c>
+      <c r="N13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>576</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>7</v>
       </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>577</v>
+      </c>
+      <c r="L16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>578</v>
+      </c>
+      <c r="N16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>7</v>
       </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>577</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>35</v>
       </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>579</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>580</v>
+      </c>
+      <c r="L19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
       </c>
       <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" t="s">
+        <v>581</v>
+      </c>
+      <c r="N20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>582</v>
+      </c>
+      <c r="M21" t="s">
+        <v>583</v>
+      </c>
+      <c r="N21" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>584</v>
+      </c>
+      <c r="L22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>10</v>
       </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>585</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>630</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>596</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>590</v>
+      </c>
+      <c r="L26" t="s">
+        <v>591</v>
+      </c>
+      <c r="M26" t="s">
+        <v>592</v>
+      </c>
+      <c r="N26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>631</v>
+      </c>
+      <c r="C27" t="s">
+        <v>623</v>
+      </c>
+      <c r="D27" t="s">
+        <v>624</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>593</v>
+      </c>
+      <c r="L27" t="s">
+        <v>594</v>
+      </c>
+      <c r="M27" t="s">
+        <v>595</v>
+      </c>
+      <c r="N27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>632</v>
+      </c>
+      <c r="C28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D28" t="s">
+        <v>596</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" t="s">
+        <v>597</v>
+      </c>
+      <c r="N28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>648</v>
+      </c>
+      <c r="C29" t="s">
+        <v>625</v>
+      </c>
+      <c r="D29" t="s">
+        <v>592</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29" t="s">
+        <v>598</v>
+      </c>
+      <c r="L29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" t="s">
+        <v>596</v>
+      </c>
+      <c r="N29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>649</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>592</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>599</v>
+      </c>
+      <c r="L30" t="s">
+        <v>572</v>
+      </c>
+      <c r="M30" t="s">
+        <v>600</v>
+      </c>
+      <c r="N30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>650</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>651</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31" t="s">
+        <v>601</v>
+      </c>
+      <c r="L31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>606</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>7</v>
+      </c>
+      <c r="K32" t="s">
+        <v>602</v>
+      </c>
+      <c r="L32" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" t="s">
+        <v>592</v>
+      </c>
+      <c r="N32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>634</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>624</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>8</v>
+      </c>
+      <c r="K33" t="s">
+        <v>603</v>
+      </c>
+      <c r="L33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" t="s">
+        <v>604</v>
+      </c>
+      <c r="N33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>635</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>604</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>9</v>
+      </c>
+      <c r="K34" t="s">
+        <v>605</v>
+      </c>
+      <c r="L34" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" t="s">
+        <v>606</v>
+      </c>
+      <c r="N34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>636</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>592</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35" t="s">
+        <v>607</v>
+      </c>
+      <c r="L35" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" t="s">
+        <v>596</v>
+      </c>
+      <c r="N35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>340</v>
+      </c>
+      <c r="C36" t="s">
+        <v>627</v>
+      </c>
+      <c r="D36" t="s">
+        <v>595</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36">
+        <v>11</v>
+      </c>
+      <c r="K36" t="s">
+        <v>608</v>
+      </c>
+      <c r="L36" t="s">
+        <v>609</v>
+      </c>
+      <c r="M36" t="s">
+        <v>610</v>
+      </c>
+      <c r="N36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>637</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>596</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37">
+        <v>12</v>
+      </c>
+      <c r="K37" t="s">
+        <v>611</v>
+      </c>
+      <c r="L37" t="s">
+        <v>591</v>
+      </c>
+      <c r="M37" t="s">
+        <v>604</v>
+      </c>
+      <c r="N37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>638</v>
+      </c>
+      <c r="C38" t="s">
+        <v>639</v>
+      </c>
+      <c r="D38" t="s">
+        <v>600</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s">
+        <v>612</v>
+      </c>
+      <c r="L38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" t="s">
+        <v>592</v>
+      </c>
+      <c r="N38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>640</v>
+      </c>
+      <c r="C39" t="s">
+        <v>639</v>
+      </c>
+      <c r="D39" t="s">
+        <v>641</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
+        <v>613</v>
+      </c>
+      <c r="L39" t="s">
+        <v>614</v>
+      </c>
+      <c r="M39" t="s">
+        <v>604</v>
+      </c>
+      <c r="N39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>642</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>592</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>15</v>
+      </c>
+      <c r="K40" t="s">
+        <v>615</v>
+      </c>
+      <c r="L40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M40" t="s">
+        <v>616</v>
+      </c>
+      <c r="N40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>643</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>596</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>16</v>
+      </c>
+      <c r="K41" t="s">
+        <v>617</v>
+      </c>
+      <c r="L41" t="s">
+        <v>614</v>
+      </c>
+      <c r="M41" t="s">
+        <v>604</v>
+      </c>
+      <c r="N41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>644</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>596</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>17</v>
+      </c>
+      <c r="K42" t="s">
+        <v>618</v>
+      </c>
+      <c r="L42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M42" t="s">
+        <v>596</v>
+      </c>
+      <c r="N42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>645</v>
+      </c>
+      <c r="C43" t="s">
+        <v>572</v>
+      </c>
+      <c r="D43" t="s">
+        <v>606</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>18</v>
+      </c>
+      <c r="K43" t="s">
+        <v>619</v>
+      </c>
+      <c r="L43" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" t="s">
+        <v>596</v>
+      </c>
+      <c r="N43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>646</v>
+      </c>
+      <c r="C44" t="s">
+        <v>626</v>
+      </c>
+      <c r="D44" t="s">
+        <v>624</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>19</v>
+      </c>
+      <c r="K44" t="s">
+        <v>620</v>
+      </c>
+      <c r="L44" t="s">
+        <v>621</v>
+      </c>
+      <c r="M44" t="s">
+        <v>604</v>
+      </c>
+      <c r="N44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>647</v>
+      </c>
+      <c r="C45" t="s">
+        <v>623</v>
+      </c>
+      <c r="D45" t="s">
+        <v>628</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>20</v>
+      </c>
+      <c r="K45" t="s">
+        <v>622</v>
+      </c>
+      <c r="L45" t="s">
+        <v>572</v>
+      </c>
+      <c r="M45" t="s">
+        <v>600</v>
+      </c>
+      <c r="N45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>658</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" t="s">
+        <v>659</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>682</v>
+      </c>
+      <c r="L49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" t="s">
+        <v>596</v>
+      </c>
+      <c r="N49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>660</v>
+      </c>
+      <c r="C50" t="s">
+        <v>572</v>
+      </c>
+      <c r="D50" t="s">
+        <v>600</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50" t="s">
+        <v>683</v>
+      </c>
+      <c r="L50" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" t="s">
+        <v>624</v>
+      </c>
+      <c r="N50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>661</v>
+      </c>
+      <c r="C51" t="s">
+        <v>652</v>
+      </c>
+      <c r="D51" t="s">
+        <v>624</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51" t="s">
+        <v>684</v>
+      </c>
+      <c r="L51" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" t="s">
+        <v>596</v>
+      </c>
+      <c r="N51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>662</v>
+      </c>
+      <c r="C52" t="s">
+        <v>625</v>
+      </c>
+      <c r="D52" t="s">
+        <v>628</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="K52" t="s">
+        <v>685</v>
+      </c>
+      <c r="L52" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" t="s">
+        <v>624</v>
+      </c>
+      <c r="N52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>663</v>
+      </c>
+      <c r="C53" t="s">
+        <v>594</v>
+      </c>
+      <c r="D53" t="s">
+        <v>604</v>
+      </c>
+      <c r="E53" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53" t="s">
+        <v>686</v>
+      </c>
+      <c r="L53" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" t="s">
+        <v>596</v>
+      </c>
+      <c r="N53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>664</v>
+      </c>
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" t="s">
+        <v>624</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+      <c r="K54" t="s">
+        <v>687</v>
+      </c>
+      <c r="L54" t="s">
+        <v>32</v>
+      </c>
+      <c r="M54" t="s">
+        <v>606</v>
+      </c>
+      <c r="N54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>665</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" t="s">
+        <v>628</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>7</v>
+      </c>
+      <c r="K55" t="s">
+        <v>688</v>
+      </c>
+      <c r="L55" t="s">
+        <v>653</v>
+      </c>
+      <c r="M55" t="s">
+        <v>604</v>
+      </c>
+      <c r="N55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>666</v>
+      </c>
+      <c r="C56" t="s">
+        <v>572</v>
+      </c>
+      <c r="D56" t="s">
+        <v>600</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>8</v>
+      </c>
+      <c r="K56" t="s">
+        <v>689</v>
+      </c>
+      <c r="L56" t="s">
+        <v>572</v>
+      </c>
+      <c r="M56" t="s">
+        <v>600</v>
+      </c>
+      <c r="N56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>667</v>
+      </c>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" t="s">
+        <v>624</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>9</v>
+      </c>
+      <c r="K57" t="s">
+        <v>690</v>
+      </c>
+      <c r="L57" t="s">
+        <v>9</v>
+      </c>
+      <c r="M57" t="s">
+        <v>592</v>
+      </c>
+      <c r="N57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>668</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>606</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="K58" t="s">
+        <v>691</v>
+      </c>
+      <c r="L58" t="s">
+        <v>652</v>
+      </c>
+      <c r="M58" t="s">
+        <v>606</v>
+      </c>
+      <c r="N58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>669</v>
+      </c>
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" t="s">
+        <v>624</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>11</v>
+      </c>
+      <c r="K59" t="s">
+        <v>692</v>
+      </c>
+      <c r="L59" t="s">
+        <v>30</v>
+      </c>
+      <c r="M59" t="s">
+        <v>672</v>
+      </c>
+      <c r="N59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>670</v>
+      </c>
+      <c r="C60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s">
+        <v>606</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>12</v>
+      </c>
+      <c r="K60" t="s">
+        <v>693</v>
+      </c>
+      <c r="L60" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" t="s">
+        <v>606</v>
+      </c>
+      <c r="N60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>671</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>672</v>
+      </c>
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>13</v>
+      </c>
+      <c r="K61" t="s">
+        <v>694</v>
+      </c>
+      <c r="L61" t="s">
+        <v>633</v>
+      </c>
+      <c r="M61" t="s">
+        <v>629</v>
+      </c>
+      <c r="N61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>673</v>
+      </c>
+      <c r="C62" t="s">
+        <v>569</v>
+      </c>
+      <c r="D62" t="s">
+        <v>592</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s">
+        <v>695</v>
+      </c>
+      <c r="L62" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" t="s">
+        <v>606</v>
+      </c>
+      <c r="N62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>15</v>
+      </c>
+      <c r="B63" t="s">
+        <v>674</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>624</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>15</v>
+      </c>
+      <c r="K63" t="s">
+        <v>696</v>
+      </c>
+      <c r="L63" t="s">
+        <v>572</v>
+      </c>
+      <c r="M63" t="s">
+        <v>600</v>
+      </c>
+      <c r="N63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>675</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>628</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>16</v>
+      </c>
+      <c r="K64" t="s">
+        <v>697</v>
+      </c>
+      <c r="L64" t="s">
+        <v>572</v>
+      </c>
+      <c r="M64" t="s">
+        <v>698</v>
+      </c>
+      <c r="N64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>676</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>604</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65">
+        <v>17</v>
+      </c>
+      <c r="K65" t="s">
+        <v>699</v>
+      </c>
+      <c r="L65" t="s">
+        <v>633</v>
+      </c>
+      <c r="M65" t="s">
+        <v>592</v>
+      </c>
+      <c r="N65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s">
+        <v>677</v>
+      </c>
+      <c r="C66" t="s">
+        <v>572</v>
+      </c>
+      <c r="D66" t="s">
+        <v>678</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66">
+        <v>18</v>
+      </c>
+      <c r="K66" t="s">
+        <v>700</v>
+      </c>
+      <c r="L66" t="s">
+        <v>30</v>
+      </c>
+      <c r="M66" t="s">
+        <v>672</v>
+      </c>
+      <c r="N66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>19</v>
+      </c>
+      <c r="B67" t="s">
+        <v>679</v>
+      </c>
+      <c r="C67" t="s">
+        <v>654</v>
+      </c>
+      <c r="D67" t="s">
+        <v>595</v>
+      </c>
+      <c r="E67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J67">
+        <v>19</v>
+      </c>
+      <c r="K67" t="s">
+        <v>701</v>
+      </c>
+      <c r="L67" t="s">
+        <v>9</v>
+      </c>
+      <c r="M67" t="s">
+        <v>596</v>
+      </c>
+      <c r="N67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>680</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>681</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+      <c r="J68">
+        <v>20</v>
+      </c>
+      <c r="K68" t="s">
+        <v>702</v>
+      </c>
+      <c r="L68" t="s">
+        <v>572</v>
+      </c>
+      <c r="M68" t="s">
+        <v>600</v>
+      </c>
+      <c r="N68" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2458,10 +4386,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -2469,10 +4397,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -2480,10 +4408,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2491,10 +4419,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2502,10 +4430,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2513,10 +4441,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2524,10 +4452,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2535,10 +4463,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2546,10 +4474,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2557,10 +4485,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2568,10 +4496,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2579,10 +4507,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2590,10 +4518,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2601,10 +4529,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2612,10 +4540,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2623,10 +4551,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2634,10 +4562,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2645,10 +4573,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2656,10 +4584,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2667,10 +4595,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2678,10 +4606,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2689,10 +4617,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2700,10 +4628,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2711,10 +4639,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2722,10 +4650,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2733,10 +4661,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2744,10 +4672,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2755,10 +4683,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2766,10 +4694,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2777,10 +4705,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2788,10 +4716,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2799,10 +4727,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2810,10 +4738,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2821,10 +4749,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2832,10 +4760,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2843,10 +4771,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2854,10 +4782,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2865,10 +4793,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2876,10 +4804,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2887,10 +4815,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2898,10 +4826,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2909,10 +4837,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2920,10 +4848,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2931,10 +4859,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2942,10 +4870,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2953,10 +4881,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2964,10 +4892,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2975,10 +4903,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2986,10 +4914,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2997,10 +4925,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3008,10 +4936,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3019,10 +4947,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3030,10 +4958,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3041,10 +4969,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3052,10 +4980,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3063,10 +4991,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3074,10 +5002,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3085,10 +5013,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3096,10 +5024,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3107,10 +5035,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3118,10 +5046,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3129,10 +5057,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3140,10 +5068,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3151,10 +5079,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>38</v>
@@ -3162,10 +5090,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3173,10 +5101,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3184,10 +5112,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3195,10 +5123,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3206,10 +5134,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3217,10 +5145,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3228,10 +5156,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3239,10 +5167,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3250,10 +5178,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3261,10 +5189,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3272,10 +5200,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3283,10 +5211,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3294,10 +5222,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>38</v>
@@ -3305,10 +5233,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3316,10 +5244,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3327,10 +5255,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3338,10 +5266,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3349,10 +5277,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3360,10 +5288,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B83" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3371,10 +5299,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3382,10 +5310,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B85" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3393,10 +5321,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3404,10 +5332,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3415,10 +5343,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B88" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3426,10 +5354,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B89" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3437,10 +5365,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3448,10 +5376,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B91" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3459,10 +5387,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B92" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3470,10 +5398,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B93" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3481,10 +5409,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3492,10 +5420,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3503,10 +5431,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3514,10 +5442,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3525,10 +5453,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B98" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3536,10 +5464,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3547,10 +5475,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3578,13 +5506,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3592,13 +5520,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -3609,13 +5537,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -3626,13 +5554,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -3643,13 +5571,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -3660,13 +5588,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -3677,13 +5605,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>38</v>
@@ -3694,13 +5622,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -3711,13 +5639,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -3728,13 +5656,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -3745,13 +5673,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -3762,13 +5690,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>38</v>
@@ -3779,13 +5707,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>38</v>
@@ -3796,13 +5724,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>38</v>
@@ -3813,13 +5741,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -3830,13 +5758,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -3847,13 +5775,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
@@ -3864,13 +5792,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -3881,13 +5809,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>38</v>
@@ -3898,13 +5826,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -3915,13 +5843,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -3932,13 +5860,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -3949,13 +5877,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>38</v>
@@ -3966,13 +5894,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -3983,13 +5911,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -4000,13 +5928,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>38</v>
@@ -4017,13 +5945,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>38</v>
@@ -4034,13 +5962,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C28" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>38</v>
@@ -4051,13 +5979,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C29" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -4068,13 +5996,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>38</v>
@@ -4085,13 +6013,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -4102,13 +6030,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B32" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C32" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -4119,13 +6047,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -4136,13 +6064,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -4153,13 +6081,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C35" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -4170,13 +6098,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -4187,13 +6115,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B37" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C37" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -4204,13 +6132,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -4221,13 +6149,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B39" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C39" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -4238,13 +6166,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B40" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C40" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -4255,13 +6183,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B41" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>38</v>
@@ -4272,13 +6200,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B42" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C42" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -4289,13 +6217,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B43" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C43" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -4306,13 +6234,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B44" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C44" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -4323,13 +6251,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B45" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C45" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -4340,13 +6268,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B46" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C46" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -4357,13 +6285,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C47" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -4374,13 +6302,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -4391,13 +6319,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B49" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C49" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -4408,13 +6336,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B50" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C50" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -4425,13 +6353,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C51" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -4442,13 +6370,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B52" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C52" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -4459,13 +6387,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B53" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C53" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
@@ -4476,13 +6404,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B54" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C54" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -4493,13 +6421,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B55" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C55" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -4510,13 +6438,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B56" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C56" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -4527,13 +6455,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B57" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C57" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -4544,13 +6472,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B58" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C58" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -4561,13 +6489,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -4578,13 +6506,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B60" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C60" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -4595,13 +6523,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B61" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C61" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -4612,13 +6540,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B62" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C62" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -4629,13 +6557,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B63" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C63" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>38</v>
@@ -4646,13 +6574,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B64" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C64" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -4663,13 +6591,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B65" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C65" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -4680,13 +6608,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B66" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C66" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -4697,13 +6625,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B67" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C67" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
@@ -4714,13 +6642,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B68" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C68" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>38</v>
@@ -4731,13 +6659,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B69" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C69" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -4748,13 +6676,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B70" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C70" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
@@ -4765,13 +6693,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B71" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C71" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -4782,13 +6710,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B72" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C72" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
@@ -4799,13 +6727,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B73" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C73" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -4816,13 +6744,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B74" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C74" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -4833,13 +6761,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B75" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C75" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
@@ -4850,13 +6778,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B76" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C76" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
@@ -4867,13 +6795,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
@@ -4884,13 +6812,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B78" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C78" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -4901,13 +6829,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B79" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C79" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -4918,13 +6846,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B80" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C80" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
@@ -4935,13 +6863,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B81" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C81" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -4952,13 +6880,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B82" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C82" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -4969,13 +6897,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B83" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C83" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
@@ -4986,13 +6914,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B84" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C84" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
@@ -5003,13 +6931,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B85" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C85" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
@@ -5020,13 +6948,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B86" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C86" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D86" t="s">
         <v>5</v>
@@ -5037,13 +6965,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B87" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C87" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D87" t="s">
         <v>5</v>
@@ -5054,13 +6982,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B88" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C88" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D88" t="s">
         <v>5</v>
@@ -5071,13 +6999,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B89" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C89" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D89" t="s">
         <v>5</v>
@@ -5088,13 +7016,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B90" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C90" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>38</v>
@@ -5105,13 +7033,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B91" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C91" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D91" t="s">
         <v>5</v>
@@ -5122,13 +7050,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B92" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C92" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>38</v>
@@ -5139,13 +7067,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B93" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C93" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>38</v>
@@ -5156,13 +7084,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B94" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C94" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D94" t="s">
         <v>5</v>
@@ -5173,13 +7101,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B95" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C95" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>38</v>
@@ -5190,13 +7118,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B96" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C96" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D96" t="s">
         <v>5</v>
@@ -5207,13 +7135,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B97" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C97" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
@@ -5224,13 +7152,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B98" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C98" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D98" t="s">
         <v>5</v>
@@ -5241,13 +7169,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B99" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C99" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
@@ -5258,13 +7186,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B100" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C100" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D100" t="s">
         <v>5</v>
@@ -5275,13 +7203,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B101" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C101" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D101" t="s">
         <v>38</v>
@@ -5305,7 +7233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+    <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -5317,21 +7245,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" t="s">
         <v>359</v>
-      </c>
-      <c r="B2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D2" t="s">
-        <v>362</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -5342,16 +7270,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -5362,16 +7290,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -5382,16 +7310,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -5402,16 +7330,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -5422,16 +7350,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -5442,16 +7370,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F8" t="s">
         <v>38</v>
@@ -5462,16 +7390,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F9" t="s">
         <v>38</v>
@@ -5482,16 +7410,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F10" t="s">
         <v>38</v>
@@ -5502,16 +7430,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
@@ -5522,16 +7450,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D12" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
@@ -5542,16 +7470,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C13" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>
@@ -5562,16 +7490,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D14" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F14" t="s">
         <v>38</v>
@@ -5582,16 +7510,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C15" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D15" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F15" t="s">
         <v>38</v>
@@ -5602,16 +7530,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C16" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F16" t="s">
         <v>38</v>
@@ -5622,16 +7550,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C17" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D17" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F17" t="s">
         <v>38</v>
@@ -5642,16 +7570,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D18" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F18" t="s">
         <v>38</v>
@@ -5662,16 +7590,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B19" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C19" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
@@ -5682,16 +7610,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C20" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D20" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F20" t="s">
         <v>38</v>
@@ -5702,16 +7630,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B21" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C21" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D21" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F21" t="s">
         <v>38</v>
@@ -5722,16 +7650,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B22" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C22" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D22" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F22" t="s">
         <v>38</v>
@@ -5742,16 +7670,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B23" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C23" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D23" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F23" t="s">
         <v>38</v>
@@ -5762,16 +7690,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B24" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C24" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D24" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
@@ -5782,16 +7710,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C25" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
@@ -5802,16 +7730,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B26" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C26" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D26" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F26" t="s">
         <v>38</v>
@@ -5822,16 +7750,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B27" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C27" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D27" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F27" t="s">
         <v>38</v>
@@ -5842,16 +7770,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B28" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C28" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F28" t="s">
         <v>38</v>
@@ -5862,16 +7790,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B29" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C29" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D29" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -5882,16 +7810,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B30" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C30" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F30" t="s">
         <v>38</v>
@@ -5902,16 +7830,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B31" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C31" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D31" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F31" t="s">
         <v>38</v>
@@ -5922,16 +7850,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B32" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C32" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D32" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F32" t="s">
         <v>38</v>
@@ -5942,16 +7870,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B33" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C33" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F33" t="s">
         <v>38</v>
@@ -5962,16 +7890,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B34" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C34" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D34" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F34" t="s">
         <v>38</v>
@@ -5982,16 +7910,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B35" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C35" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -6002,16 +7930,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B36" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C36" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D36" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F36" t="s">
         <v>38</v>
@@ -6022,16 +7950,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B37" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C37" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D37" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F37" t="s">
         <v>38</v>
@@ -6042,16 +7970,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B38" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C38" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D38" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F38" t="s">
         <v>38</v>
@@ -6062,16 +7990,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B39" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C39" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D39" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
@@ -6082,16 +8010,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B40" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C40" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D40" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -6102,16 +8030,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B41" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C41" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D41" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F41" t="s">
         <v>38</v>
@@ -6122,16 +8050,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B42" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C42" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D42" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F42" t="s">
         <v>38</v>
@@ -6142,16 +8070,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>356</v>
+      </c>
+      <c r="B43" t="s">
+        <v>357</v>
+      </c>
+      <c r="C43" t="s">
+        <v>358</v>
+      </c>
+      <c r="D43" t="s">
         <v>359</v>
-      </c>
-      <c r="B43" t="s">
-        <v>360</v>
-      </c>
-      <c r="C43" t="s">
-        <v>361</v>
-      </c>
-      <c r="D43" t="s">
-        <v>362</v>
       </c>
       <c r="F43" t="s">
         <v>38</v>
@@ -6162,16 +8090,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B44" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C44" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D44" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F44" t="s">
         <v>38</v>
@@ -6182,16 +8110,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B45" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C45" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D45" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F45" t="s">
         <v>38</v>
@@ -6202,16 +8130,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B46" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C46" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D46" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F46" t="s">
         <v>38</v>
@@ -6222,16 +8150,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B47" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C47" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D47" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F47" t="s">
         <v>38</v>
@@ -6242,16 +8170,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B48" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C48" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D48" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F48" t="s">
         <v>5</v>
@@ -6262,16 +8190,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B49" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C49" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -6282,16 +8210,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B50" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C50" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D50" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F50" t="s">
         <v>38</v>
@@ -6302,16 +8230,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B51" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C51" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D51" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F51" t="s">
         <v>38</v>
@@ -6322,16 +8250,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B52" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C52" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D52" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F52" t="s">
         <v>5</v>
@@ -6342,16 +8270,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B53" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C53" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D53" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F53" t="s">
         <v>5</v>
@@ -6362,16 +8290,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B54" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C54" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F54" t="s">
         <v>38</v>
@@ -6382,16 +8310,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B55" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C55" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D55" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F55" t="s">
         <v>38</v>
@@ -6402,16 +8330,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B56" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C56" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D56" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F56" t="s">
         <v>38</v>
@@ -6422,16 +8350,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B57" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C57" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D57" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F57" t="s">
         <v>38</v>
@@ -6442,16 +8370,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B58" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C58" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D58" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F58" t="s">
         <v>38</v>
@@ -6462,16 +8390,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B59" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C59" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D59" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F59" t="s">
         <v>38</v>
@@ -6482,16 +8410,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B60" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C60" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D60" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -6502,16 +8430,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B61" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C61" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D61" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F61" t="s">
         <v>38</v>
@@ -6522,16 +8450,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B62" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C62" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D62" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F62" t="s">
         <v>38</v>
@@ -6542,16 +8470,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B63" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C63" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D63" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F63" t="s">
         <v>38</v>
@@ -6562,16 +8490,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B64" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C64" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D64" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F64" t="s">
         <v>38</v>
@@ -6582,16 +8510,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B65" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C65" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D65" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F65" t="s">
         <v>38</v>
@@ -6602,16 +8530,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B66" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C66" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F66" t="s">
         <v>38</v>
@@ -6622,16 +8550,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B67" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C67" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D67" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F67" t="s">
         <v>5</v>
@@ -6642,16 +8570,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B68" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C68" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D68" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F68" t="s">
         <v>5</v>
@@ -6662,16 +8590,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B69" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C69" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D69" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F69" t="s">
         <v>38</v>
@@ -6682,16 +8610,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B70" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C70" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D70" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F70" t="s">
         <v>38</v>
@@ -6702,16 +8630,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B71" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C71" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D71" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F71" t="s">
         <v>38</v>
@@ -6722,16 +8650,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B72" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C72" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D72" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F72" t="s">
         <v>38</v>
@@ -6742,16 +8670,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C73" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D73" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F73" t="s">
         <v>38</v>
@@ -6762,16 +8690,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B74" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C74" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D74" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F74" t="s">
         <v>38</v>
@@ -6782,16 +8710,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B75" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C75" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F75" t="s">
         <v>38</v>
@@ -6802,16 +8730,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B76" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C76" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D76" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F76" t="s">
         <v>5</v>
@@ -6822,16 +8750,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B77" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C77" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D77" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F77" t="s">
         <v>38</v>
@@ -6842,16 +8770,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B78" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C78" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D78" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F78" t="s">
         <v>38</v>
@@ -6862,16 +8790,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B79" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C79" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D79" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F79" t="s">
         <v>38</v>
@@ -6882,16 +8810,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B80" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C80" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D80" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F80" t="s">
         <v>38</v>
@@ -6902,16 +8830,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B81" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C81" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D81" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F81" t="s">
         <v>38</v>
@@ -6922,16 +8850,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B82" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C82" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D82" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F82" t="s">
         <v>38</v>
@@ -6942,16 +8870,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B83" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C83" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D83" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F83" t="s">
         <v>38</v>
@@ -6962,16 +8890,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B84" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C84" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D84" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F84" t="s">
         <v>5</v>
@@ -6982,16 +8910,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B85" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C85" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D85" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F85" t="s">
         <v>38</v>
@@ -7002,16 +8930,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B86" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C86" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D86" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F86" t="s">
         <v>38</v>
@@ -7022,16 +8950,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B87" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C87" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D87" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F87" t="s">
         <v>38</v>
@@ -7042,16 +8970,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B88" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C88" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D88" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F88" t="s">
         <v>38</v>
@@ -7062,16 +8990,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B89" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C89" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D89" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F89" t="s">
         <v>38</v>
@@ -7082,16 +9010,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B90" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C90" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D90" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F90" t="s">
         <v>38</v>
@@ -7102,16 +9030,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B91" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C91" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D91" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F91" t="s">
         <v>5</v>
@@ -7122,16 +9050,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B92" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C92" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D92" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F92" t="s">
         <v>38</v>
@@ -7142,16 +9070,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B93" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C93" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D93" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F93" t="s">
         <v>38</v>
@@ -7162,16 +9090,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B94" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C94" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D94" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F94" t="s">
         <v>38</v>
@@ -7182,16 +9110,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B95" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C95" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D95" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F95" t="s">
         <v>38</v>
@@ -7202,16 +9130,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B96" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C96" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D96" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F96" t="s">
         <v>38</v>
@@ -7222,16 +9150,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B97" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C97" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D97" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F97" t="s">
         <v>38</v>
@@ -7242,16 +9170,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B98" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C98" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D98" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F98" t="s">
         <v>38</v>
@@ -7262,16 +9190,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B99" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C99" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D99" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F99" t="s">
         <v>38</v>
@@ -7282,16 +9210,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B100" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C100" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D100" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F100" t="s">
         <v>38</v>
@@ -7302,16 +9230,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B101" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C101" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D101" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F101" t="s">
         <v>38</v>
